--- a/excel/stock_Kbar.xlsx
+++ b/excel/stock_Kbar.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,2342 +423,2302 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>44862</v>
+        <v>44867</v>
       </c>
       <c r="B2">
-        <v>375.2975769042969</v>
+        <v>386.6702100536491</v>
       </c>
       <c r="C2">
-        <v>377.7698929576849</v>
+        <v>390.6259155273438</v>
       </c>
       <c r="D2">
-        <v>370.8474080081985</v>
+        <v>384.19789413259</v>
       </c>
       <c r="E2">
-        <v>375.2975769042969</v>
+        <v>390.6259155273438</v>
       </c>
       <c r="F2">
-        <v>40184472</v>
+        <v>22535650</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>44865</v>
+        <v>44868</v>
       </c>
       <c r="B3">
-        <v>381.7255992400341</v>
+        <v>380.7366375128428</v>
       </c>
       <c r="C3">
-        <v>385.6813049316406</v>
+        <v>382.7144901752472</v>
       </c>
       <c r="D3">
-        <v>376.7809671255258</v>
+        <v>379.2532480160395</v>
       </c>
       <c r="E3">
-        <v>385.6813049316406</v>
+        <v>379.7477111816406</v>
       </c>
       <c r="F3">
-        <v>38409054</v>
+        <v>39731333</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>44866</v>
+        <v>44869</v>
       </c>
       <c r="B4">
-        <v>384.1978937492517</v>
+        <v>376.7809405901045</v>
       </c>
       <c r="C4">
-        <v>388.6480624027179</v>
+        <v>380.2421828264965</v>
       </c>
       <c r="D4">
-        <v>381.7255778306593</v>
+        <v>374.3086247069673</v>
       </c>
       <c r="E4">
-        <v>387.1646728515625</v>
+        <v>377.7698669433594</v>
       </c>
       <c r="F4">
-        <v>41426496</v>
+        <v>28397417</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>44867</v>
+        <v>44872</v>
       </c>
       <c r="B5">
-        <v>386.6702100536491</v>
+        <v>385.6813049316406</v>
       </c>
       <c r="C5">
-        <v>390.6259155273438</v>
+        <v>388.6480842003455</v>
       </c>
       <c r="D5">
-        <v>384.19789413259</v>
+        <v>382.7145256629357</v>
       </c>
       <c r="E5">
-        <v>390.6259155273438</v>
+        <v>385.6813049316406</v>
       </c>
       <c r="F5">
-        <v>22535650</v>
+        <v>35387706</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>44868</v>
+        <v>44873</v>
       </c>
       <c r="B6">
-        <v>380.7366375128428</v>
+        <v>390.6259289122464</v>
       </c>
       <c r="C6">
-        <v>382.7144901752472</v>
+        <v>395.0760977226391</v>
       </c>
       <c r="D6">
-        <v>379.2532480160395</v>
+        <v>389.637002509937</v>
       </c>
       <c r="E6">
-        <v>379.7477111816406</v>
+        <v>394.5816345214844</v>
       </c>
       <c r="F6">
-        <v>39731333</v>
+        <v>31838223</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>44869</v>
+        <v>44874</v>
       </c>
       <c r="B7">
-        <v>376.7809405901045</v>
+        <v>399.0318173195819</v>
       </c>
       <c r="C7">
-        <v>380.2421828264965</v>
+        <v>412.3823242187501</v>
       </c>
       <c r="D7">
-        <v>374.3086247069673</v>
+        <v>399.0318173195819</v>
       </c>
       <c r="E7">
-        <v>377.7698669433594</v>
+        <v>412.38232421875</v>
       </c>
       <c r="F7">
-        <v>28397417</v>
+        <v>52260831</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>44872</v>
+        <v>44875</v>
       </c>
       <c r="B8">
-        <v>385.6813049316406</v>
+        <v>404.4709079484998</v>
       </c>
       <c r="C8">
-        <v>388.6480842003455</v>
+        <v>406.9432240117546</v>
       </c>
       <c r="D8">
-        <v>382.7145256629357</v>
+        <v>401.5041286725939</v>
       </c>
       <c r="E8">
-        <v>385.6813049316406</v>
+        <v>402.9875183105469</v>
       </c>
       <c r="F8">
-        <v>35387706</v>
+        <v>32044942</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>44873</v>
+        <v>44876</v>
       </c>
       <c r="B9">
-        <v>390.6259289122464</v>
+        <v>436.6109924316407</v>
       </c>
       <c r="C9">
-        <v>395.0760977226391</v>
+        <v>437.1054556167275</v>
       </c>
       <c r="D9">
-        <v>389.637002509937</v>
+        <v>430.1829710255123</v>
       </c>
       <c r="E9">
-        <v>394.5816345214844</v>
+        <v>436.6109924316406</v>
       </c>
       <c r="F9">
-        <v>31838223</v>
+        <v>80016195</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>44874</v>
+        <v>44879</v>
       </c>
       <c r="B10">
-        <v>399.0318173195819</v>
+        <v>445.0168669625615</v>
       </c>
       <c r="C10">
-        <v>412.3823242187501</v>
+        <v>445.0168669625615</v>
       </c>
       <c r="D10">
-        <v>399.0318173195819</v>
+        <v>436.6109928088242</v>
       </c>
       <c r="E10">
-        <v>412.38232421875</v>
+        <v>440.0722351074219</v>
       </c>
       <c r="F10">
-        <v>52260831</v>
+        <v>61933190</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>44875</v>
+        <v>44880</v>
       </c>
       <c r="B11">
-        <v>404.4709079484998</v>
+        <v>459.8507957458496</v>
       </c>
       <c r="C11">
-        <v>406.9432240117546</v>
+        <v>481.6071774800618</v>
       </c>
       <c r="D11">
-        <v>401.5041286725939</v>
+        <v>456.884016418457</v>
       </c>
       <c r="E11">
-        <v>402.9875183105469</v>
+        <v>474.6846923828125</v>
       </c>
       <c r="F11">
-        <v>32044942</v>
+        <v>113379796</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>44876</v>
+        <v>44881</v>
       </c>
       <c r="B12">
-        <v>436.6109924316407</v>
+        <v>486.0573159282457</v>
       </c>
       <c r="C12">
-        <v>437.1054556167275</v>
+        <v>488.5296318790506</v>
       </c>
       <c r="D12">
-        <v>430.1829710255123</v>
+        <v>476.1680521250261</v>
       </c>
       <c r="E12">
-        <v>436.6109924316406</v>
+        <v>481.6071472167969</v>
       </c>
       <c r="F12">
-        <v>80016195</v>
+        <v>85726375</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>44879</v>
+        <v>44882</v>
       </c>
       <c r="B13">
-        <v>445.0168669625615</v>
+        <v>477.156986983781</v>
       </c>
       <c r="C13">
-        <v>445.0168669625615</v>
+        <v>479.6293029785156</v>
       </c>
       <c r="D13">
-        <v>436.6109928088242</v>
+        <v>469.7400389995772</v>
       </c>
       <c r="E13">
-        <v>440.0722351074219</v>
+        <v>479.6293029785156</v>
       </c>
       <c r="F13">
-        <v>61933190</v>
+        <v>45144984</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>44880</v>
+        <v>44883</v>
       </c>
       <c r="B14">
-        <v>459.8507957458496</v>
+        <v>486.0573159282457</v>
       </c>
       <c r="C14">
-        <v>481.6071774800618</v>
+        <v>488.5296318790506</v>
       </c>
       <c r="D14">
-        <v>456.884016418457</v>
+        <v>480.6182208364749</v>
       </c>
       <c r="E14">
-        <v>474.6846923828125</v>
+        <v>481.6071472167969</v>
       </c>
       <c r="F14">
-        <v>113379796</v>
+        <v>35859717</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>44881</v>
+        <v>44886</v>
       </c>
       <c r="B15">
-        <v>486.0573159282457</v>
+        <v>482.1016319559817</v>
       </c>
       <c r="C15">
-        <v>488.5296318790506</v>
+        <v>484.0794848050319</v>
       </c>
       <c r="D15">
-        <v>476.1680521250261</v>
+        <v>475.1791469843061</v>
       </c>
       <c r="E15">
-        <v>481.6071472167969</v>
+        <v>476.6625366210938</v>
       </c>
       <c r="F15">
-        <v>85726375</v>
+        <v>29710180</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>44882</v>
+        <v>44887</v>
       </c>
       <c r="B16">
-        <v>477.156986983781</v>
+        <v>470.7289700945137</v>
       </c>
       <c r="C16">
-        <v>479.6293029785156</v>
+        <v>485.5628662109375</v>
       </c>
       <c r="D16">
-        <v>469.7400389995772</v>
+        <v>470.7289700945137</v>
       </c>
       <c r="E16">
-        <v>479.6293029785156</v>
+        <v>485.5628662109375</v>
       </c>
       <c r="F16">
-        <v>45144984</v>
+        <v>37343127</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>44883</v>
+        <v>44888</v>
       </c>
       <c r="B17">
-        <v>486.0573159282457</v>
+        <v>489.0241043276903</v>
       </c>
       <c r="C17">
-        <v>488.5296318790506</v>
+        <v>490.5074939262576</v>
       </c>
       <c r="D17">
-        <v>480.6182208364749</v>
+        <v>483.0905459334211</v>
       </c>
       <c r="E17">
-        <v>481.6071472167969</v>
+        <v>486.5517883300781</v>
       </c>
       <c r="F17">
-        <v>35859717</v>
+        <v>33475337</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>44886</v>
+        <v>44889</v>
       </c>
       <c r="B18">
-        <v>482.1016319559817</v>
+        <v>488.5296240775816</v>
       </c>
       <c r="C18">
-        <v>484.0794848050319</v>
+        <v>490.5074768066406</v>
       </c>
       <c r="D18">
-        <v>475.1791469843061</v>
+        <v>486.5517713485225</v>
       </c>
       <c r="E18">
-        <v>476.6625366210938</v>
+        <v>490.5074768066406</v>
       </c>
       <c r="F18">
-        <v>29710180</v>
+        <v>27396552</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>44887</v>
+        <v>44890</v>
       </c>
       <c r="B19">
-        <v>470.7289700945137</v>
+        <v>488.5296459274598</v>
       </c>
       <c r="C19">
-        <v>485.5628662109375</v>
+        <v>492.4853515625</v>
       </c>
       <c r="D19">
-        <v>470.7289700945137</v>
+        <v>488.5296459274598</v>
       </c>
       <c r="E19">
-        <v>485.5628662109375</v>
+        <v>492.4853515625</v>
       </c>
       <c r="F19">
-        <v>37343127</v>
+        <v>39949969</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>44888</v>
+        <v>44893</v>
       </c>
       <c r="B20">
-        <v>489.0241043276903</v>
+        <v>480.6182025508504</v>
       </c>
       <c r="C20">
-        <v>490.5074939262576</v>
+        <v>484.5739079216393</v>
       </c>
       <c r="D20">
-        <v>483.0905459334211</v>
+        <v>475.1791076660156</v>
       </c>
       <c r="E20">
-        <v>486.5517883300781</v>
+        <v>475.1791076660156</v>
       </c>
       <c r="F20">
-        <v>33475337</v>
+        <v>38926919</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>44889</v>
+        <v>44894</v>
       </c>
       <c r="B21">
-        <v>488.5296240775816</v>
+        <v>468.2566410824504</v>
       </c>
       <c r="C21">
-        <v>490.5074768066406</v>
+        <v>482.5960735971188</v>
       </c>
       <c r="D21">
-        <v>486.5517713485225</v>
+        <v>467.7621778922893</v>
       </c>
       <c r="E21">
-        <v>490.5074768066406</v>
+        <v>481.6071472167969</v>
       </c>
       <c r="F21">
-        <v>27396552</v>
+        <v>38182197</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>44890</v>
+        <v>44895</v>
       </c>
       <c r="B22">
-        <v>488.5296459274598</v>
+        <v>477.6514290945871</v>
       </c>
       <c r="C22">
-        <v>492.4853515625</v>
+        <v>484.5739135742188</v>
       </c>
       <c r="D22">
-        <v>488.5296459274598</v>
+        <v>477.1569659174705</v>
       </c>
       <c r="E22">
-        <v>492.4853515625</v>
+        <v>484.5739135742188</v>
       </c>
       <c r="F22">
-        <v>39949969</v>
+        <v>57111603</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>44893</v>
+        <v>44896</v>
       </c>
       <c r="B23">
-        <v>480.6182025508504</v>
+        <v>500.3967451671421</v>
       </c>
       <c r="C23">
-        <v>484.5739079216393</v>
+        <v>502.3745979148383</v>
       </c>
       <c r="D23">
-        <v>475.1791076660156</v>
+        <v>492.9797973632813</v>
       </c>
       <c r="E23">
-        <v>475.1791076660156</v>
+        <v>492.9797973632812</v>
       </c>
       <c r="F23">
-        <v>38926919</v>
+        <v>41746878</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>44894</v>
+        <v>44897</v>
       </c>
       <c r="B24">
-        <v>468.2566410824504</v>
+        <v>484.5739182215656</v>
       </c>
       <c r="C24">
-        <v>482.5960735971188</v>
+        <v>491.496402767588</v>
       </c>
       <c r="D24">
-        <v>467.7621778922893</v>
+        <v>484.5739182215656</v>
       </c>
       <c r="E24">
-        <v>481.6071472167969</v>
+        <v>487.0462341308594</v>
       </c>
       <c r="F24">
-        <v>38182197</v>
+        <v>28319679</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>44895</v>
+        <v>44900</v>
       </c>
       <c r="B25">
-        <v>477.6514290945871</v>
+        <v>486.0573380359111</v>
       </c>
       <c r="C25">
-        <v>484.5739135742188</v>
+        <v>491.9908965877228</v>
       </c>
       <c r="D25">
-        <v>477.1569659174705</v>
+        <v>483.5850219726562</v>
       </c>
       <c r="E25">
-        <v>484.5739135742188</v>
+        <v>483.5850219726562</v>
       </c>
       <c r="F25">
-        <v>57111603</v>
+        <v>28360444</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>44896</v>
+        <v>44901</v>
       </c>
       <c r="B26">
-        <v>500.3967451671421</v>
+        <v>482.5960815940442</v>
       </c>
       <c r="C26">
-        <v>502.3745979148383</v>
+        <v>483.5850079907533</v>
       </c>
       <c r="D26">
-        <v>492.9797973632813</v>
+        <v>472.7068176269531</v>
       </c>
       <c r="E26">
-        <v>492.9797973632812</v>
+        <v>472.7068176269531</v>
       </c>
       <c r="F26">
-        <v>41746878</v>
+        <v>40561068</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>44897</v>
+        <v>44902</v>
       </c>
       <c r="B27">
-        <v>484.5739182215656</v>
+        <v>471.7178734709087</v>
       </c>
       <c r="C27">
-        <v>491.496402767588</v>
+        <v>480.12374752647</v>
       </c>
       <c r="D27">
-        <v>484.5739182215656</v>
+        <v>469.7400207519531</v>
       </c>
       <c r="E27">
-        <v>487.0462341308594</v>
+        <v>469.7400207519531</v>
       </c>
       <c r="F27">
-        <v>28319679</v>
+        <v>36563503</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>44900</v>
+        <v>44903</v>
       </c>
       <c r="B28">
-        <v>486.0573380359111</v>
+        <v>469.7400203312442</v>
       </c>
       <c r="C28">
-        <v>491.9908965877228</v>
+        <v>469.7400203312442</v>
       </c>
       <c r="D28">
-        <v>483.5850219726562</v>
+        <v>461.8286094625075</v>
       </c>
       <c r="E28">
-        <v>483.5850219726562</v>
+        <v>466.2787780761719</v>
       </c>
       <c r="F28">
-        <v>28360444</v>
+        <v>27238567</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>44901</v>
+        <v>44904</v>
       </c>
       <c r="B29">
-        <v>482.5960815940442</v>
+        <v>472.7068179121641</v>
       </c>
       <c r="C29">
-        <v>483.5850079907533</v>
+        <v>479.1348394946517</v>
       </c>
       <c r="D29">
-        <v>472.7068176269531</v>
+        <v>470.7289651175525</v>
       </c>
       <c r="E29">
-        <v>472.7068176269531</v>
+        <v>476.1680603027344</v>
       </c>
       <c r="F29">
-        <v>40561068</v>
+        <v>25915337</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>44902</v>
+        <v>44907</v>
       </c>
       <c r="B30">
-        <v>471.7178734709087</v>
+        <v>471.2234102911698</v>
       </c>
       <c r="C30">
-        <v>480.12374752647</v>
+        <v>472.7067998303865</v>
       </c>
       <c r="D30">
-        <v>469.7400207519531</v>
+        <v>468.2566312127364</v>
       </c>
       <c r="E30">
         <v>469.7400207519531</v>
       </c>
       <c r="F30">
-        <v>36563503</v>
+        <v>20973334</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>44903</v>
+        <v>44908</v>
       </c>
       <c r="B31">
-        <v>469.7400203312442</v>
+        <v>467.76216761406</v>
       </c>
       <c r="C31">
-        <v>469.7400203312442</v>
+        <v>470.7289466898363</v>
       </c>
       <c r="D31">
-        <v>461.8286094625075</v>
+        <v>465.7843148968759</v>
       </c>
       <c r="E31">
         <v>466.2787780761719</v>
       </c>
       <c r="F31">
-        <v>27238567</v>
+        <v>33272826</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>44904</v>
+        <v>44909</v>
       </c>
       <c r="B32">
-        <v>472.7068179121641</v>
+        <v>466.7732337530892</v>
       </c>
       <c r="C32">
-        <v>479.1348394946517</v>
+        <v>475.1791076660156</v>
       </c>
       <c r="D32">
-        <v>470.7289651175525</v>
+        <v>466.7732337530892</v>
       </c>
       <c r="E32">
-        <v>476.1680603027344</v>
+        <v>475.1791076660156</v>
       </c>
       <c r="F32">
-        <v>25915337</v>
+        <v>30636639</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>44907</v>
+        <v>44910</v>
       </c>
       <c r="B33">
-        <v>471.2234102911698</v>
+        <v>473.4385222912331</v>
       </c>
       <c r="C33">
-        <v>472.7067998303865</v>
+        <v>478.9089253849343</v>
       </c>
       <c r="D33">
-        <v>468.2566312127364</v>
+        <v>471.9465941747691</v>
       </c>
       <c r="E33">
-        <v>469.7400207519531</v>
+        <v>477.914306640625</v>
       </c>
       <c r="F33">
-        <v>20973334</v>
+        <v>24222008</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>44908</v>
+        <v>44911</v>
       </c>
       <c r="B34">
-        <v>467.76216761406</v>
+        <v>463.9896695082354</v>
       </c>
       <c r="C34">
-        <v>470.7289466898363</v>
+        <v>468.4654541015624</v>
       </c>
       <c r="D34">
-        <v>465.7843148968759</v>
+        <v>462.9950507097183</v>
       </c>
       <c r="E34">
-        <v>466.2787780761719</v>
+        <v>468.4654541015625</v>
       </c>
       <c r="F34">
-        <v>33272826</v>
+        <v>47601400</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>44909</v>
+        <v>44914</v>
       </c>
       <c r="B35">
-        <v>466.7732337530892</v>
+        <v>463.9896545410157</v>
       </c>
       <c r="C35">
-        <v>475.1791076660156</v>
+        <v>466.9735108403148</v>
       </c>
       <c r="D35">
-        <v>466.7732337530892</v>
+        <v>462.4977263913661</v>
       </c>
       <c r="E35">
-        <v>475.1791076660156</v>
+        <v>463.9896545410156</v>
       </c>
       <c r="F35">
-        <v>30636639</v>
+        <v>21075559</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>44910</v>
+        <v>44915</v>
       </c>
       <c r="B36">
-        <v>473.4385222912331</v>
+        <v>462.4977266905738</v>
       </c>
       <c r="C36">
-        <v>478.9089253849343</v>
+        <v>464.4869642247268</v>
       </c>
       <c r="D36">
-        <v>471.9465941747691</v>
+        <v>452.5515390198087</v>
       </c>
       <c r="E36">
-        <v>477.914306640625</v>
+        <v>455.0380859375</v>
       </c>
       <c r="F36">
-        <v>24222008</v>
+        <v>31139235</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>44911</v>
+        <v>44916</v>
       </c>
       <c r="B37">
-        <v>463.9896695082354</v>
+        <v>457.524648097086</v>
       </c>
       <c r="C37">
-        <v>468.4654541015624</v>
+        <v>460.5085044977192</v>
       </c>
       <c r="D37">
-        <v>462.9950507097183</v>
+        <v>454.5407916964529</v>
       </c>
       <c r="E37">
-        <v>468.4654541015625</v>
+        <v>456.530029296875</v>
       </c>
       <c r="F37">
-        <v>47601400</v>
+        <v>36182644</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>44914</v>
+        <v>44917</v>
       </c>
       <c r="B38">
-        <v>463.9896545410157</v>
+        <v>463.9896697019919</v>
       </c>
       <c r="C38">
-        <v>466.9735108403148</v>
+        <v>466.4762166993231</v>
       </c>
       <c r="D38">
-        <v>462.4977263913661</v>
+        <v>461.5031227046608</v>
       </c>
       <c r="E38">
-        <v>463.9896545410156</v>
+        <v>465.4815979003906</v>
       </c>
       <c r="F38">
-        <v>21075559</v>
+        <v>14047382</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>44915</v>
+        <v>44918</v>
       </c>
       <c r="B39">
-        <v>462.4977266905738</v>
+        <v>455.0380911355491</v>
       </c>
       <c r="C39">
-        <v>464.4869642247268</v>
+        <v>456.0327099139874</v>
       </c>
       <c r="D39">
-        <v>452.5515390198087</v>
+        <v>452.5515441894532</v>
       </c>
       <c r="E39">
-        <v>455.0380859375</v>
+        <v>452.5515441894531</v>
       </c>
       <c r="F39">
-        <v>31139235</v>
+        <v>24927413</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>44916</v>
+        <v>44921</v>
       </c>
       <c r="B40">
-        <v>457.524648097086</v>
+        <v>451.5569101690854</v>
       </c>
       <c r="C40">
-        <v>460.5085044977192</v>
+        <v>454.5407664036829</v>
       </c>
       <c r="D40">
-        <v>454.5407916964529</v>
+        <v>451.0596007966525</v>
       </c>
       <c r="E40">
-        <v>456.530029296875</v>
+        <v>454.04345703125</v>
       </c>
       <c r="F40">
-        <v>36182644</v>
+        <v>8793306</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>44917</v>
+        <v>44922</v>
       </c>
       <c r="B41">
-        <v>463.9896697019919</v>
+        <v>455.5353902403583</v>
       </c>
       <c r="C41">
-        <v>466.4762166993231</v>
+        <v>460.0111746422832</v>
       </c>
       <c r="D41">
-        <v>461.5031227046608</v>
+        <v>454.5407714843749</v>
       </c>
       <c r="E41">
-        <v>465.4815979003906</v>
+        <v>454.540771484375</v>
       </c>
       <c r="F41">
-        <v>14047382</v>
+        <v>10264001</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>44918</v>
+        <v>44923</v>
       </c>
       <c r="B42">
-        <v>455.0380911355491</v>
+        <v>448.5730590820312</v>
       </c>
       <c r="C42">
-        <v>456.0327099139874</v>
+        <v>449.5676778383107</v>
       </c>
       <c r="D42">
-        <v>452.5515441894532</v>
+        <v>443.599965300634</v>
       </c>
       <c r="E42">
-        <v>452.5515441894531</v>
+        <v>448.5730590820312</v>
       </c>
       <c r="F42">
-        <v>24927413</v>
+        <v>32578949</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>44921</v>
+        <v>44924</v>
       </c>
       <c r="B43">
-        <v>451.5569101690854</v>
+        <v>441.6107380272562</v>
       </c>
       <c r="C43">
-        <v>454.5407664036829</v>
+        <v>447.0811413136298</v>
       </c>
       <c r="D43">
-        <v>451.0596007966525</v>
+        <v>440.1188098582451</v>
       </c>
       <c r="E43">
-        <v>454.04345703125</v>
+        <v>443.5999755859375</v>
       </c>
       <c r="F43">
-        <v>8793306</v>
+        <v>23020759</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>44922</v>
+        <v>44925</v>
       </c>
       <c r="B44">
-        <v>455.5353902403583</v>
+        <v>452.5515393243319</v>
       </c>
       <c r="C44">
-        <v>460.0111746422832</v>
+        <v>454.0434674759506</v>
       </c>
       <c r="D44">
-        <v>454.5407714843749</v>
+        <v>446.0865173339843</v>
       </c>
       <c r="E44">
-        <v>454.540771484375</v>
+        <v>446.0865173339844</v>
       </c>
       <c r="F44">
-        <v>10264001</v>
+        <v>21683478</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>44923</v>
+        <v>44929</v>
       </c>
       <c r="B45">
-        <v>448.5730590820312</v>
+        <v>443.5999852868895</v>
       </c>
       <c r="C45">
-        <v>449.5676778383107</v>
+        <v>451.0596262950771</v>
       </c>
       <c r="D45">
-        <v>443.599965300634</v>
+        <v>440.6161288836145</v>
       </c>
       <c r="E45">
-        <v>448.5730590820312</v>
+        <v>450.5623168945312</v>
       </c>
       <c r="F45">
-        <v>32578949</v>
+        <v>14885824</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>44924</v>
+        <v>44930</v>
       </c>
       <c r="B46">
-        <v>441.6107380272562</v>
+        <v>447.0811462402344</v>
       </c>
       <c r="C46">
-        <v>447.0811413136298</v>
+        <v>452.5515495868891</v>
       </c>
       <c r="D46">
-        <v>440.1188098582451</v>
+        <v>446.0865274499335</v>
       </c>
       <c r="E46">
-        <v>443.5999755859375</v>
+        <v>447.0811462402344</v>
       </c>
       <c r="F46">
-        <v>23020759</v>
+        <v>19188422</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>44925</v>
+        <v>44931</v>
       </c>
       <c r="B47">
-        <v>452.5515393243319</v>
+        <v>456.5300242383451</v>
       </c>
       <c r="C47">
-        <v>454.0434674759506</v>
+        <v>457.0273336329403</v>
       </c>
       <c r="D47">
-        <v>446.0865173339843</v>
+        <v>452.551549081584</v>
       </c>
       <c r="E47">
-        <v>446.0865173339844</v>
+        <v>456.03271484375</v>
       </c>
       <c r="F47">
-        <v>21683478</v>
+        <v>23549581</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>44929</v>
+        <v>44932</v>
       </c>
       <c r="B48">
-        <v>443.5999852868895</v>
+        <v>452.551549081584</v>
       </c>
       <c r="C48">
-        <v>451.0596262950771</v>
+        <v>457.0273336329403</v>
       </c>
       <c r="D48">
-        <v>440.6161288836145</v>
+        <v>452.551549081584</v>
       </c>
       <c r="E48">
-        <v>450.5623168945312</v>
+        <v>456.03271484375</v>
       </c>
       <c r="F48">
-        <v>14885824</v>
+        <v>20886011</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="B49">
-        <v>447.0811462402344</v>
+        <v>465.4815772804054</v>
       </c>
       <c r="C49">
-        <v>452.5515495868891</v>
+        <v>478.4116210937501</v>
       </c>
       <c r="D49">
-        <v>446.0865274499335</v>
+        <v>464.9842679029691</v>
       </c>
       <c r="E49">
-        <v>447.0811462402344</v>
+        <v>478.41162109375</v>
       </c>
       <c r="F49">
-        <v>19188422</v>
+        <v>46666263</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>44931</v>
+        <v>44936</v>
       </c>
       <c r="B50">
-        <v>456.5300242383451</v>
+        <v>483.3847351074219</v>
       </c>
       <c r="C50">
-        <v>457.0273336329403</v>
+        <v>484.3793539039392</v>
       </c>
       <c r="D50">
-        <v>452.551549081584</v>
+        <v>480.4008787178699</v>
       </c>
       <c r="E50">
-        <v>456.03271484375</v>
+        <v>483.3847351074219</v>
       </c>
       <c r="F50">
-        <v>23549581</v>
+        <v>32646014</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>44932</v>
+        <v>44937</v>
       </c>
       <c r="B51">
-        <v>452.551549081584</v>
+        <v>484.3793386610915</v>
       </c>
       <c r="C51">
-        <v>457.0273336329403</v>
+        <v>485.3739574263093</v>
       </c>
       <c r="D51">
-        <v>452.551549081584</v>
+        <v>479.4062448350023</v>
       </c>
       <c r="E51">
-        <v>456.03271484375</v>
+        <v>481.8927917480469</v>
       </c>
       <c r="F51">
-        <v>20886011</v>
+        <v>21051115</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="B52">
-        <v>465.4815772804054</v>
+        <v>484.8766377871476</v>
       </c>
       <c r="C52">
-        <v>478.4116210937501</v>
+        <v>485.3739471592369</v>
       </c>
       <c r="D52">
-        <v>464.9842679029691</v>
+        <v>481.3954721825219</v>
       </c>
       <c r="E52">
-        <v>478.41162109375</v>
+        <v>483.8820190429688</v>
       </c>
       <c r="F52">
-        <v>46666263</v>
+        <v>20963689</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>44936</v>
+        <v>44939</v>
       </c>
       <c r="B53">
-        <v>483.3847351074219</v>
+        <v>504.2717186279297</v>
       </c>
       <c r="C53">
-        <v>484.3793539039392</v>
+        <v>506.2609561767578</v>
       </c>
       <c r="D53">
-        <v>480.4008787178699</v>
+        <v>496.3147684326171</v>
       </c>
       <c r="E53">
-        <v>483.3847351074219</v>
+        <v>497.3093872070312</v>
       </c>
       <c r="F53">
-        <v>32646014</v>
+        <v>77606949</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="B54">
-        <v>484.3793386610915</v>
+        <v>503.2770894569925</v>
       </c>
       <c r="C54">
-        <v>485.3739574263093</v>
+        <v>505.2663269647277</v>
       </c>
       <c r="D54">
-        <v>479.4062448350023</v>
+        <v>500.2932331953898</v>
       </c>
       <c r="E54">
-        <v>481.8927917480469</v>
+        <v>502.282470703125</v>
       </c>
       <c r="F54">
-        <v>21051115</v>
+        <v>34373918</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="B55">
-        <v>484.8766377871476</v>
+        <v>501.2878621823745</v>
       </c>
       <c r="C55">
-        <v>485.3739471592369</v>
+        <v>501.2878621823745</v>
       </c>
       <c r="D55">
-        <v>481.3954721825219</v>
+        <v>496.8120776986033</v>
       </c>
       <c r="E55">
-        <v>483.8820190429688</v>
+        <v>500.2932434082031</v>
       </c>
       <c r="F55">
-        <v>20963689</v>
+        <v>27770329</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>44939</v>
+        <v>44956</v>
       </c>
       <c r="B56">
-        <v>504.2717186279297</v>
+        <v>539.0833841397617</v>
       </c>
       <c r="C56">
-        <v>506.2609561767578</v>
+        <v>540.0780029296875</v>
       </c>
       <c r="D56">
-        <v>496.3147684326171</v>
+        <v>531.1264338203557</v>
       </c>
       <c r="E56">
-        <v>497.3093872070312</v>
+        <v>540.0780029296875</v>
       </c>
       <c r="F56">
-        <v>77606949</v>
+        <v>124428936</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>44942</v>
+        <v>44957</v>
       </c>
       <c r="B57">
-        <v>503.2770894569925</v>
+        <v>534.1102600097656</v>
       </c>
       <c r="C57">
-        <v>505.2663269647277</v>
+        <v>535.1048787434896</v>
       </c>
       <c r="D57">
-        <v>500.2932331953898</v>
+        <v>518.1963602701823</v>
       </c>
       <c r="E57">
-        <v>502.282470703125</v>
+        <v>519.1909790039062</v>
       </c>
       <c r="F57">
-        <v>34373918</v>
+        <v>72530854</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>44943</v>
+        <v>44958</v>
       </c>
       <c r="B58">
-        <v>501.2878621823745</v>
+        <v>529.1371867629717</v>
       </c>
       <c r="C58">
-        <v>501.2878621823745</v>
+        <v>530.1318055350825</v>
       </c>
       <c r="D58">
-        <v>496.8120776986033</v>
+        <v>519.1909990418632</v>
       </c>
       <c r="E58">
-        <v>500.2932434082031</v>
+        <v>527.14794921875</v>
       </c>
       <c r="F58">
-        <v>27770329</v>
+        <v>33710990</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>44956</v>
+        <v>44959</v>
       </c>
       <c r="B59">
-        <v>539.0833841397617</v>
+        <v>535.1048787434896</v>
       </c>
       <c r="C59">
-        <v>540.0780029296875</v>
+        <v>539.0833536783854</v>
       </c>
       <c r="D59">
-        <v>531.1264338203557</v>
+        <v>534.1102600097656</v>
       </c>
       <c r="E59">
-        <v>540.0780029296875</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="F59">
-        <v>124428936</v>
+        <v>43077053</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>44957</v>
+        <v>44960</v>
       </c>
       <c r="B60">
-        <v>534.1102600097656</v>
+        <v>537.0941364809156</v>
       </c>
       <c r="C60">
-        <v>535.1048787434896</v>
+        <v>539.0833740234375</v>
       </c>
       <c r="D60">
-        <v>518.1963602701823</v>
+        <v>533.1156613958718</v>
       </c>
       <c r="E60">
-        <v>519.1909790039062</v>
+        <v>539.0833740234375</v>
       </c>
       <c r="F60">
-        <v>72530854</v>
+        <v>31635865</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>44958</v>
+        <v>44963</v>
       </c>
       <c r="B61">
-        <v>529.1371867629717</v>
+        <v>529.1372074953957</v>
       </c>
       <c r="C61">
-        <v>530.1318055350825</v>
+        <v>530.1318263064773</v>
       </c>
       <c r="D61">
-        <v>519.1909990418632</v>
+        <v>523.1694946289062</v>
       </c>
       <c r="E61">
-        <v>527.14794921875</v>
+        <v>523.1694946289062</v>
       </c>
       <c r="F61">
-        <v>33710990</v>
+        <v>30870136</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B62">
-        <v>535.1048787434896</v>
+        <v>521.1802266633305</v>
       </c>
       <c r="C62">
-        <v>539.0833536783854</v>
+        <v>525.1587016760277</v>
       </c>
       <c r="D62">
-        <v>534.1102600097656</v>
+        <v>519.1909891569819</v>
       </c>
       <c r="E62">
-        <v>537.0941162109375</v>
+        <v>520.1856079101562</v>
       </c>
       <c r="F62">
-        <v>43077053</v>
+        <v>23481767</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>44960</v>
+        <v>44965</v>
       </c>
       <c r="B63">
-        <v>537.0941364809156</v>
+        <v>535.1048787434896</v>
       </c>
       <c r="C63">
-        <v>539.0833740234375</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="D63">
-        <v>533.1156613958718</v>
+        <v>531.1264038085938</v>
       </c>
       <c r="E63">
-        <v>539.0833740234375</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="F63">
-        <v>31635865</v>
+        <v>35096191</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>44963</v>
+        <v>44966</v>
       </c>
       <c r="B64">
-        <v>529.1372074953957</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="C64">
-        <v>530.1318263064773</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="D64">
-        <v>523.1694946289062</v>
+        <v>533.1156412760416</v>
       </c>
       <c r="E64">
-        <v>523.1694946289062</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="F64">
-        <v>30870136</v>
+        <v>18861972</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>44964</v>
+        <v>44967</v>
       </c>
       <c r="B65">
-        <v>521.1802266633305</v>
+        <v>541.0726419151376</v>
       </c>
       <c r="C65">
-        <v>525.1587016760277</v>
+        <v>543.0618795692374</v>
       </c>
       <c r="D65">
-        <v>519.1909891569819</v>
+        <v>538.0887854339879</v>
       </c>
       <c r="E65">
-        <v>520.1856079101562</v>
+        <v>542.0672607421875</v>
       </c>
       <c r="F65">
-        <v>23481767</v>
+        <v>28495684</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>44965</v>
+        <v>44970</v>
       </c>
       <c r="B66">
-        <v>535.1048787434896</v>
+        <v>541.072601374769</v>
       </c>
       <c r="C66">
-        <v>537.0941162109375</v>
+        <v>541.072601374769</v>
       </c>
       <c r="D66">
-        <v>531.1264038085938</v>
+        <v>535.104888859606</v>
       </c>
       <c r="E66">
-        <v>537.0941162109375</v>
+        <v>538.0887451171875</v>
       </c>
       <c r="F66">
-        <v>35096191</v>
+        <v>22768977</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>44966</v>
+        <v>44971</v>
       </c>
       <c r="B67">
-        <v>537.0941162109375</v>
+        <v>541.0726419151376</v>
       </c>
       <c r="C67">
-        <v>537.0941162109375</v>
+        <v>543.0618795692374</v>
       </c>
       <c r="D67">
-        <v>533.1156412760416</v>
+        <v>540.0780230880878</v>
       </c>
       <c r="E67">
-        <v>537.0941162109375</v>
+        <v>542.0672607421875</v>
       </c>
       <c r="F67">
-        <v>18861972</v>
+        <v>21883297</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>44967</v>
+        <v>44972</v>
       </c>
       <c r="B68">
-        <v>541.0726419151376</v>
+        <v>523.1694845145089</v>
       </c>
       <c r="C68">
-        <v>543.0618795692374</v>
+        <v>529.137197265625</v>
       </c>
       <c r="D68">
-        <v>538.0887854339879</v>
+        <v>519.1910093470982</v>
       </c>
       <c r="E68">
-        <v>542.0672607421875</v>
+        <v>522.1748657226562</v>
       </c>
       <c r="F68">
-        <v>28495684</v>
+        <v>61796793</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>44970</v>
+        <v>44973</v>
       </c>
       <c r="B69">
-        <v>541.072601374769</v>
+        <v>525.15869140625</v>
       </c>
       <c r="C69">
-        <v>541.072601374769</v>
+        <v>528.1425476074219</v>
       </c>
       <c r="D69">
-        <v>535.104888859606</v>
+        <v>521.1802164713541</v>
       </c>
       <c r="E69">
-        <v>538.0887451171875</v>
+        <v>525.15869140625</v>
       </c>
       <c r="F69">
-        <v>22768977</v>
+        <v>29975138</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>44971</v>
+        <v>44974</v>
       </c>
       <c r="B70">
-        <v>541.0726419151376</v>
+        <v>521.1802370520633</v>
       </c>
       <c r="C70">
-        <v>543.0618795692374</v>
+        <v>521.1802370520633</v>
       </c>
       <c r="D70">
-        <v>540.0780230880878</v>
+        <v>513.2232868680624</v>
       </c>
       <c r="E70">
-        <v>542.0672607421875</v>
+        <v>515.2125244140625</v>
       </c>
       <c r="F70">
-        <v>21883297</v>
+        <v>28121975</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>44972</v>
+        <v>44977</v>
       </c>
       <c r="B71">
-        <v>523.1694845145089</v>
+        <v>511.2340392476124</v>
       </c>
       <c r="C71">
-        <v>529.137197265625</v>
+        <v>516.2071330146125</v>
       </c>
       <c r="D71">
-        <v>519.1910093470982</v>
+        <v>508.2501829874123</v>
       </c>
       <c r="E71">
-        <v>522.1748657226562</v>
+        <v>514.2178955078125</v>
       </c>
       <c r="F71">
-        <v>61796793</v>
+        <v>20065156</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>44973</v>
+        <v>44978</v>
       </c>
       <c r="B72">
-        <v>525.15869140625</v>
+        <v>512.2286478678385</v>
       </c>
       <c r="C72">
-        <v>528.1425476074219</v>
+        <v>514.2178853352865</v>
       </c>
       <c r="D72">
-        <v>521.1802164713541</v>
+        <v>510.2394104003906</v>
       </c>
       <c r="E72">
-        <v>525.15869140625</v>
+        <v>513.2232666015625</v>
       </c>
       <c r="F72">
-        <v>29975138</v>
+        <v>13504100</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>44974</v>
+        <v>44979</v>
       </c>
       <c r="B73">
-        <v>521.1802370520633</v>
+        <v>503.2771097217086</v>
       </c>
       <c r="C73">
-        <v>521.1802370520633</v>
+        <v>506.2609661034579</v>
       </c>
       <c r="D73">
-        <v>513.2232868680624</v>
+        <v>502.2824909277921</v>
       </c>
       <c r="E73">
-        <v>515.2125244140625</v>
+        <v>504.271728515625</v>
       </c>
       <c r="F73">
-        <v>28121975</v>
+        <v>24575245</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>44977</v>
+        <v>44980</v>
       </c>
       <c r="B74">
-        <v>511.2340392476124</v>
+        <v>509.2448117760618</v>
       </c>
       <c r="C74">
-        <v>516.2071330146125</v>
+        <v>518.1963807330629</v>
       </c>
       <c r="D74">
-        <v>508.2501829874123</v>
+        <v>507.2555742300616</v>
       </c>
       <c r="E74">
-        <v>514.2178955078125</v>
+        <v>515.2125244140625</v>
       </c>
       <c r="F74">
-        <v>20065156</v>
+        <v>25376835</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>44978</v>
+        <v>44981</v>
       </c>
       <c r="B75">
-        <v>512.2286478678385</v>
+        <v>521.1802269026725</v>
       </c>
       <c r="C75">
-        <v>514.2178853352865</v>
+        <v>522.1748456563035</v>
       </c>
       <c r="D75">
-        <v>510.2394104003906</v>
+        <v>508.2501831054688</v>
       </c>
       <c r="E75">
-        <v>513.2232666015625</v>
+        <v>508.2501831054688</v>
       </c>
       <c r="F75">
-        <v>13504100</v>
+        <v>41692491</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>44979</v>
+        <v>44986</v>
       </c>
       <c r="B76">
-        <v>503.2771097217086</v>
+        <v>501.287841796875</v>
       </c>
       <c r="C76">
-        <v>506.2609661034579</v>
+        <v>519.1909790039062</v>
       </c>
       <c r="D76">
-        <v>502.2824909277921</v>
+        <v>501.287841796875</v>
       </c>
       <c r="E76">
-        <v>504.271728515625</v>
+        <v>519.1909790039062</v>
       </c>
       <c r="F76">
-        <v>24575245</v>
+        <v>39560848</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>44980</v>
+        <v>44987</v>
       </c>
       <c r="B77">
-        <v>509.2448117760618</v>
+        <v>516.2071533203125</v>
       </c>
       <c r="C77">
-        <v>518.1963807330629</v>
+        <v>517.2017721128373</v>
       </c>
       <c r="D77">
-        <v>507.2555742300616</v>
+        <v>512.2286781502138</v>
       </c>
       <c r="E77">
-        <v>515.2125244140625</v>
+        <v>516.2071533203125</v>
       </c>
       <c r="F77">
-        <v>25376835</v>
+        <v>16558784</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>44981</v>
+        <v>44988</v>
       </c>
       <c r="B78">
-        <v>521.1802269026725</v>
+        <v>521.1802164713541</v>
       </c>
       <c r="C78">
-        <v>522.1748456563035</v>
+        <v>522.1748352050781</v>
       </c>
       <c r="D78">
-        <v>508.2501831054688</v>
+        <v>513.2232666015625</v>
       </c>
       <c r="E78">
-        <v>508.2501831054688</v>
+        <v>513.2232666015625</v>
       </c>
       <c r="F78">
-        <v>41692491</v>
+        <v>23253895</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>44986</v>
+        <v>44991</v>
       </c>
       <c r="B79">
-        <v>501.287841796875</v>
+        <v>517.2017923014636</v>
       </c>
       <c r="C79">
-        <v>519.1909790039062</v>
+        <v>521.1802676268594</v>
       </c>
       <c r="D79">
-        <v>501.287841796875</v>
+        <v>514.2179358074167</v>
       </c>
       <c r="E79">
-        <v>519.1909790039062</v>
+        <v>518.1964111328125</v>
       </c>
       <c r="F79">
-        <v>39560848</v>
+        <v>21922085</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>44987</v>
+        <v>44992</v>
       </c>
       <c r="B80">
-        <v>516.2071533203125</v>
+        <v>518.1963804987552</v>
       </c>
       <c r="C80">
-        <v>517.2017721128373</v>
+        <v>523.1694743615071</v>
       </c>
       <c r="D80">
-        <v>512.2286781502138</v>
+        <v>516.2071429536543</v>
       </c>
       <c r="E80">
-        <v>516.2071533203125</v>
+        <v>521.1802368164062</v>
       </c>
       <c r="F80">
-        <v>16558784</v>
+        <v>24861078</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>44988</v>
+        <v>44993</v>
       </c>
       <c r="B81">
-        <v>521.1802164713541</v>
+        <v>518.1964111328125</v>
       </c>
       <c r="C81">
-        <v>522.1748352050781</v>
+        <v>520.1856487955105</v>
       </c>
       <c r="D81">
-        <v>513.2232666015625</v>
+        <v>515.2125546387656</v>
       </c>
       <c r="E81">
-        <v>513.2232666015625</v>
+        <v>518.1964111328125</v>
       </c>
       <c r="F81">
-        <v>23253895</v>
+        <v>24512408</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>44991</v>
+        <v>44994</v>
       </c>
       <c r="B82">
-        <v>517.2017923014636</v>
+        <v>522.1748352050781</v>
       </c>
       <c r="C82">
-        <v>521.1802676268594</v>
+        <v>523.1694539388021</v>
       </c>
       <c r="D82">
-        <v>514.2179358074167</v>
+        <v>519.1909790039062</v>
       </c>
       <c r="E82">
-        <v>518.1964111328125</v>
+        <v>519.1909790039062</v>
       </c>
       <c r="F82">
-        <v>21922085</v>
+        <v>21557577</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>44992</v>
+        <v>44995</v>
       </c>
       <c r="B83">
-        <v>518.1963804987552</v>
+        <v>512.2286785043935</v>
       </c>
       <c r="C83">
-        <v>523.1694743615071</v>
+        <v>513.223297297606</v>
       </c>
       <c r="D83">
-        <v>516.2071429536543</v>
+        <v>508.2502033315439</v>
       </c>
       <c r="E83">
-        <v>521.1802368164062</v>
+        <v>510.2394409179688</v>
       </c>
       <c r="F83">
-        <v>24861078</v>
+        <v>24045605</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>44993</v>
+        <v>44998</v>
       </c>
       <c r="B84">
-        <v>518.1964111328125</v>
+        <v>510.2394104003906</v>
       </c>
       <c r="C84">
-        <v>520.1856487955105</v>
+        <v>515.2125040690104</v>
       </c>
       <c r="D84">
-        <v>515.2125546387656</v>
+        <v>506.2609354654948</v>
       </c>
       <c r="E84">
-        <v>518.1964111328125</v>
+        <v>513.2232666015625</v>
       </c>
       <c r="F84">
-        <v>24512408</v>
+        <v>21466947</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>44994</v>
+        <v>44999</v>
       </c>
       <c r="B85">
-        <v>522.1748352050781</v>
+        <v>508.2502035103592</v>
       </c>
       <c r="C85">
-        <v>523.1694539388021</v>
+        <v>511.2340598910462</v>
       </c>
       <c r="D85">
-        <v>519.1909790039062</v>
+        <v>507.2555847167968</v>
       </c>
       <c r="E85">
-        <v>519.1909790039062</v>
+        <v>507.2555847167969</v>
       </c>
       <c r="F85">
-        <v>21557577</v>
+        <v>20474770</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>44995</v>
+        <v>45000</v>
       </c>
       <c r="B86">
-        <v>512.2286785043935</v>
+        <v>512.228658119993</v>
       </c>
       <c r="C86">
-        <v>513.223297297606</v>
+        <v>513.2232768736241</v>
       </c>
       <c r="D86">
-        <v>508.2502033315439</v>
+        <v>507.2555643518377</v>
       </c>
       <c r="E86">
-        <v>510.2394409179688</v>
+        <v>508.2501831054688</v>
       </c>
       <c r="F86">
-        <v>24045605</v>
+        <v>23208597</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>44998</v>
+        <v>45001</v>
       </c>
       <c r="B87">
-        <v>510.2394104003906</v>
+        <v>505</v>
       </c>
       <c r="C87">
-        <v>515.2125040690104</v>
+        <v>510</v>
       </c>
       <c r="D87">
-        <v>506.2609354654948</v>
+        <v>504</v>
       </c>
       <c r="E87">
-        <v>513.2232666015625</v>
+        <v>505</v>
       </c>
       <c r="F87">
-        <v>21466947</v>
+        <v>21965994</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>44999</v>
+        <v>45002</v>
       </c>
       <c r="B88">
-        <v>508.2502035103592</v>
+        <v>516</v>
       </c>
       <c r="C88">
-        <v>511.2340598910462</v>
+        <v>518</v>
       </c>
       <c r="D88">
-        <v>507.2555847167968</v>
+        <v>513</v>
       </c>
       <c r="E88">
-        <v>507.2555847167969</v>
+        <v>518</v>
       </c>
       <c r="F88">
-        <v>20474770</v>
+        <v>33118483</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45000</v>
+        <v>45005</v>
       </c>
       <c r="B89">
-        <v>512.228658119993</v>
+        <v>517</v>
       </c>
       <c r="C89">
-        <v>513.2232768736241</v>
+        <v>518</v>
       </c>
       <c r="D89">
-        <v>507.2555643518377</v>
+        <v>510</v>
       </c>
       <c r="E89">
-        <v>508.2501831054688</v>
+        <v>512</v>
       </c>
       <c r="F89">
-        <v>23208597</v>
+        <v>11837312</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45001</v>
+        <v>45006</v>
       </c>
       <c r="B90">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="C90">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="D90">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="E90">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="F90">
-        <v>21965994</v>
+        <v>18284799</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45002</v>
+        <v>45007</v>
       </c>
       <c r="B91">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="C91">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="D91">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="E91">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="F91">
-        <v>33118483</v>
+        <v>42385987</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B92">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="C92">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="D92">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="E92">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="F92">
-        <v>11837312</v>
+        <v>26728246</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45006</v>
+        <v>45009</v>
       </c>
       <c r="B93">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="C93">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="D93">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="E93">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="F93">
-        <v>18284799</v>
+        <v>21926240</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45007</v>
+        <v>45012</v>
       </c>
       <c r="B94">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C94">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D94">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="E94">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F94">
-        <v>42385987</v>
+        <v>16111177</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45008</v>
+        <v>45013</v>
       </c>
       <c r="B95">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C95">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="D95">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E95">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="F95">
-        <v>26728246</v>
+        <v>17234120</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45009</v>
+        <v>45014</v>
       </c>
       <c r="B96">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C96">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D96">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="E96">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F96">
-        <v>21926240</v>
+        <v>17280749</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45012</v>
+        <v>45015</v>
       </c>
       <c r="B97">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C97">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D97">
         <v>531</v>
       </c>
       <c r="E97">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F97">
-        <v>16111177</v>
+        <v>19201564</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45013</v>
+        <v>45016</v>
       </c>
       <c r="B98">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="C98">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="D98">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="E98">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="F98">
-        <v>17234120</v>
+        <v>23558838</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45014</v>
+        <v>45022</v>
       </c>
       <c r="B99">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C99">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D99">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E99">
         <v>530</v>
       </c>
       <c r="F99">
-        <v>17280749</v>
+        <v>25423363</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45015</v>
+        <v>45023</v>
       </c>
       <c r="B100">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C100">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D100">
+        <v>529</v>
+      </c>
+      <c r="E100">
         <v>531</v>
       </c>
-      <c r="E100">
-        <v>535</v>
-      </c>
       <c r="F100">
-        <v>19201564</v>
+        <v>8557482</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45016</v>
+        <v>45026</v>
       </c>
       <c r="B101">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C101">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D101">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E101">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F101">
-        <v>23558838</v>
+        <v>7435151</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45022</v>
+        <v>45027</v>
       </c>
       <c r="B102">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C102">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D102">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E102">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F102">
-        <v>25423363</v>
+        <v>22675697</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45023</v>
+        <v>45028</v>
       </c>
       <c r="B103">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="C103">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D103">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="E103">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="F103">
-        <v>8557482</v>
+        <v>23816473</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45026</v>
+        <v>45029</v>
       </c>
       <c r="B104">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="C104">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="D104">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="E104">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="F104">
-        <v>7435151</v>
+        <v>25536889</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45027</v>
+        <v>45030</v>
       </c>
       <c r="B105">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C105">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D105">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E105">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F105">
-        <v>22675697</v>
+        <v>18072504</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45028</v>
+        <v>45033</v>
       </c>
       <c r="B106">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C106">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D106">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E106">
         <v>520</v>
       </c>
       <c r="F106">
-        <v>23816473</v>
+        <v>14634287</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45029</v>
+        <v>45034</v>
       </c>
       <c r="B107">
+        <v>518</v>
+      </c>
+      <c r="C107">
+        <v>520</v>
+      </c>
+      <c r="D107">
+        <v>514</v>
+      </c>
+      <c r="E107">
         <v>515</v>
       </c>
-      <c r="C107">
-        <v>517</v>
-      </c>
-      <c r="D107">
-        <v>510</v>
-      </c>
-      <c r="E107">
-        <v>510</v>
-      </c>
       <c r="F107">
-        <v>25536889</v>
+        <v>15168888</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45030</v>
+        <v>45035</v>
       </c>
       <c r="B108">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C108">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D108">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E108">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F108">
-        <v>18072504</v>
+        <v>21123233</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45033</v>
+        <v>45036</v>
       </c>
       <c r="B109">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C109">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D109">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E109">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F109">
-        <v>14634287</v>
+        <v>17221961</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45034</v>
+        <v>45037</v>
       </c>
       <c r="B110">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C110">
         <v>520</v>
       </c>
       <c r="D110">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E110">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F110">
-        <v>15168888</v>
+        <v>25016683</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45035</v>
+        <v>45040</v>
       </c>
       <c r="B111">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C111">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D111">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E111">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F111">
-        <v>21123233</v>
+        <v>16886512</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="B112">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C112">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D112">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="E112">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="F112">
-        <v>17221961</v>
+        <v>36898412</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45037</v>
+        <v>45042</v>
       </c>
       <c r="B113">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="C113">
-        <v>520</v>
+        <v>498.5</v>
       </c>
       <c r="D113">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="E113">
-        <v>511</v>
+        <v>491.5</v>
       </c>
       <c r="F113">
-        <v>25016683</v>
+        <v>31269245</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45040</v>
+        <v>45043</v>
       </c>
       <c r="B114">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="C114">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="D114">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="E114">
-        <v>507</v>
+        <v>493.5</v>
       </c>
       <c r="F114">
-        <v>16886512</v>
+        <v>29537148</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45041</v>
+        <v>45044</v>
       </c>
       <c r="B115">
-        <v>504</v>
+        <v>498.5</v>
       </c>
       <c r="C115">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D115">
         <v>498</v>
       </c>
       <c r="E115">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F115">
-        <v>36898412</v>
+        <v>24824100</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45042</v>
+        <v>45048</v>
       </c>
       <c r="B116">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C116">
-        <v>498.5</v>
+        <v>502</v>
       </c>
       <c r="D116">
-        <v>491</v>
+        <v>496.5</v>
       </c>
       <c r="E116">
-        <v>491.5</v>
+        <v>501</v>
       </c>
       <c r="F116">
-        <v>31269245</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="2">
-        <v>45043</v>
-      </c>
-      <c r="B117">
-        <v>491</v>
-      </c>
-      <c r="C117">
-        <v>495</v>
-      </c>
-      <c r="D117">
-        <v>489</v>
-      </c>
-      <c r="E117">
-        <v>493.5</v>
-      </c>
-      <c r="F117">
-        <v>29537148</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="2">
-        <v>45044</v>
-      </c>
-      <c r="B118">
-        <v>498.5</v>
-      </c>
-      <c r="C118">
-        <v>502</v>
-      </c>
-      <c r="D118">
-        <v>498</v>
-      </c>
-      <c r="E118">
-        <v>502</v>
-      </c>
-      <c r="F118">
-        <v>24824100</v>
+        <v>15589362</v>
       </c>
     </row>
   </sheetData>

--- a/excel/stock_Kbar.xlsx
+++ b/excel/stock_Kbar.xlsx
@@ -423,207 +423,207 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>44867</v>
+        <v>44869</v>
       </c>
       <c r="B2">
-        <v>386.6702100536491</v>
+        <v>376.7809405901045</v>
       </c>
       <c r="C2">
-        <v>390.6259155273438</v>
+        <v>380.2421828264965</v>
       </c>
       <c r="D2">
-        <v>384.19789413259</v>
+        <v>374.3086247069673</v>
       </c>
       <c r="E2">
-        <v>390.6259155273438</v>
+        <v>377.7698669433594</v>
       </c>
       <c r="F2">
-        <v>22535650</v>
+        <v>28397417</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>44868</v>
+        <v>44872</v>
       </c>
       <c r="B3">
-        <v>380.7366375128428</v>
+        <v>385.6813049316406</v>
       </c>
       <c r="C3">
-        <v>382.7144901752472</v>
+        <v>388.6480842003455</v>
       </c>
       <c r="D3">
-        <v>379.2532480160395</v>
+        <v>382.7145256629357</v>
       </c>
       <c r="E3">
-        <v>379.7477111816406</v>
+        <v>385.6813049316406</v>
       </c>
       <c r="F3">
-        <v>39731333</v>
+        <v>35387706</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="B4">
-        <v>376.7809405901045</v>
+        <v>390.6259289122464</v>
       </c>
       <c r="C4">
-        <v>380.2421828264965</v>
+        <v>395.0760977226391</v>
       </c>
       <c r="D4">
-        <v>374.3086247069673</v>
+        <v>389.637002509937</v>
       </c>
       <c r="E4">
-        <v>377.7698669433594</v>
+        <v>394.5816345214844</v>
       </c>
       <c r="F4">
-        <v>28397417</v>
+        <v>31838223</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>44872</v>
+        <v>44874</v>
       </c>
       <c r="B5">
-        <v>385.6813049316406</v>
+        <v>399.0318173195819</v>
       </c>
       <c r="C5">
-        <v>388.6480842003455</v>
+        <v>412.3823242187501</v>
       </c>
       <c r="D5">
-        <v>382.7145256629357</v>
+        <v>399.0318173195819</v>
       </c>
       <c r="E5">
-        <v>385.6813049316406</v>
+        <v>412.38232421875</v>
       </c>
       <c r="F5">
-        <v>35387706</v>
+        <v>52260831</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>44873</v>
+        <v>44875</v>
       </c>
       <c r="B6">
-        <v>390.6259289122464</v>
+        <v>404.4709079484998</v>
       </c>
       <c r="C6">
-        <v>395.0760977226391</v>
+        <v>406.9432240117546</v>
       </c>
       <c r="D6">
-        <v>389.637002509937</v>
+        <v>401.5041286725939</v>
       </c>
       <c r="E6">
-        <v>394.5816345214844</v>
+        <v>402.9875183105469</v>
       </c>
       <c r="F6">
-        <v>31838223</v>
+        <v>32044942</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>44874</v>
+        <v>44876</v>
       </c>
       <c r="B7">
-        <v>399.0318173195819</v>
+        <v>436.6109924316407</v>
       </c>
       <c r="C7">
-        <v>412.3823242187501</v>
+        <v>437.1054556167275</v>
       </c>
       <c r="D7">
-        <v>399.0318173195819</v>
+        <v>430.1829710255123</v>
       </c>
       <c r="E7">
-        <v>412.38232421875</v>
+        <v>436.6109924316406</v>
       </c>
       <c r="F7">
-        <v>52260831</v>
+        <v>80016195</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>44875</v>
+        <v>44879</v>
       </c>
       <c r="B8">
-        <v>404.4709079484998</v>
+        <v>445.0168669625615</v>
       </c>
       <c r="C8">
-        <v>406.9432240117546</v>
+        <v>445.0168669625615</v>
       </c>
       <c r="D8">
-        <v>401.5041286725939</v>
+        <v>436.6109928088242</v>
       </c>
       <c r="E8">
-        <v>402.9875183105469</v>
+        <v>440.0722351074219</v>
       </c>
       <c r="F8">
-        <v>32044942</v>
+        <v>61933190</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>44876</v>
+        <v>44880</v>
       </c>
       <c r="B9">
-        <v>436.6109924316407</v>
+        <v>459.8507957458496</v>
       </c>
       <c r="C9">
-        <v>437.1054556167275</v>
+        <v>481.6071774800618</v>
       </c>
       <c r="D9">
-        <v>430.1829710255123</v>
+        <v>456.884016418457</v>
       </c>
       <c r="E9">
-        <v>436.6109924316406</v>
+        <v>474.6846923828125</v>
       </c>
       <c r="F9">
-        <v>80016195</v>
+        <v>113379796</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>44879</v>
+        <v>44881</v>
       </c>
       <c r="B10">
-        <v>445.0168669625615</v>
+        <v>486.0573159282457</v>
       </c>
       <c r="C10">
-        <v>445.0168669625615</v>
+        <v>488.5296318790506</v>
       </c>
       <c r="D10">
-        <v>436.6109928088242</v>
+        <v>476.1680521250261</v>
       </c>
       <c r="E10">
-        <v>440.0722351074219</v>
+        <v>481.6071472167969</v>
       </c>
       <c r="F10">
-        <v>61933190</v>
+        <v>85726375</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>44880</v>
+        <v>44882</v>
       </c>
       <c r="B11">
-        <v>459.8507957458496</v>
+        <v>477.156986983781</v>
       </c>
       <c r="C11">
-        <v>481.6071774800618</v>
+        <v>479.6293029785156</v>
       </c>
       <c r="D11">
-        <v>456.884016418457</v>
+        <v>469.7400389995772</v>
       </c>
       <c r="E11">
-        <v>474.6846923828125</v>
+        <v>479.6293029785156</v>
       </c>
       <c r="F11">
-        <v>113379796</v>
+        <v>45144984</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>44881</v>
+        <v>44883</v>
       </c>
       <c r="B12">
         <v>486.0573159282457</v>
@@ -632,1058 +632,1058 @@
         <v>488.5296318790506</v>
       </c>
       <c r="D12">
-        <v>476.1680521250261</v>
+        <v>480.6182208364749</v>
       </c>
       <c r="E12">
         <v>481.6071472167969</v>
       </c>
       <c r="F12">
-        <v>85726375</v>
+        <v>35859717</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>44882</v>
+        <v>44886</v>
       </c>
       <c r="B13">
-        <v>477.156986983781</v>
+        <v>482.1016319559817</v>
       </c>
       <c r="C13">
-        <v>479.6293029785156</v>
+        <v>484.0794848050319</v>
       </c>
       <c r="D13">
-        <v>469.7400389995772</v>
+        <v>475.1791469843061</v>
       </c>
       <c r="E13">
-        <v>479.6293029785156</v>
+        <v>476.6625366210938</v>
       </c>
       <c r="F13">
-        <v>45144984</v>
+        <v>29710180</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="B14">
-        <v>486.0573159282457</v>
+        <v>470.7289700945137</v>
       </c>
       <c r="C14">
-        <v>488.5296318790506</v>
+        <v>485.5628662109375</v>
       </c>
       <c r="D14">
-        <v>480.6182208364749</v>
+        <v>470.7289700945137</v>
       </c>
       <c r="E14">
-        <v>481.6071472167969</v>
+        <v>485.5628662109375</v>
       </c>
       <c r="F14">
-        <v>35859717</v>
+        <v>37343127</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>44886</v>
+        <v>44888</v>
       </c>
       <c r="B15">
-        <v>482.1016319559817</v>
+        <v>489.0241043276903</v>
       </c>
       <c r="C15">
-        <v>484.0794848050319</v>
+        <v>490.5074939262576</v>
       </c>
       <c r="D15">
-        <v>475.1791469843061</v>
+        <v>483.0905459334211</v>
       </c>
       <c r="E15">
-        <v>476.6625366210938</v>
+        <v>486.5517883300781</v>
       </c>
       <c r="F15">
-        <v>29710180</v>
+        <v>33475337</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>44887</v>
+        <v>44889</v>
       </c>
       <c r="B16">
-        <v>470.7289700945137</v>
+        <v>488.5296240775816</v>
       </c>
       <c r="C16">
-        <v>485.5628662109375</v>
+        <v>490.5074768066406</v>
       </c>
       <c r="D16">
-        <v>470.7289700945137</v>
+        <v>486.5517713485225</v>
       </c>
       <c r="E16">
-        <v>485.5628662109375</v>
+        <v>490.5074768066406</v>
       </c>
       <c r="F16">
-        <v>37343127</v>
+        <v>27396552</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="B17">
-        <v>489.0241043276903</v>
+        <v>488.5296459274598</v>
       </c>
       <c r="C17">
-        <v>490.5074939262576</v>
+        <v>492.4853515625</v>
       </c>
       <c r="D17">
-        <v>483.0905459334211</v>
+        <v>488.5296459274598</v>
       </c>
       <c r="E17">
-        <v>486.5517883300781</v>
+        <v>492.4853515625</v>
       </c>
       <c r="F17">
-        <v>33475337</v>
+        <v>39949969</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>44889</v>
+        <v>44893</v>
       </c>
       <c r="B18">
-        <v>488.5296240775816</v>
+        <v>480.6182025508504</v>
       </c>
       <c r="C18">
-        <v>490.5074768066406</v>
+        <v>484.5739079216393</v>
       </c>
       <c r="D18">
-        <v>486.5517713485225</v>
+        <v>475.1791076660156</v>
       </c>
       <c r="E18">
-        <v>490.5074768066406</v>
+        <v>475.1791076660156</v>
       </c>
       <c r="F18">
-        <v>27396552</v>
+        <v>38926919</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="B19">
-        <v>488.5296459274598</v>
+        <v>468.2566410824504</v>
       </c>
       <c r="C19">
-        <v>492.4853515625</v>
+        <v>482.5960735971188</v>
       </c>
       <c r="D19">
-        <v>488.5296459274598</v>
+        <v>467.7621778922893</v>
       </c>
       <c r="E19">
-        <v>492.4853515625</v>
+        <v>481.6071472167969</v>
       </c>
       <c r="F19">
-        <v>39949969</v>
+        <v>38182197</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="B20">
-        <v>480.6182025508504</v>
+        <v>477.6514290945871</v>
       </c>
       <c r="C20">
-        <v>484.5739079216393</v>
+        <v>484.5739135742188</v>
       </c>
       <c r="D20">
-        <v>475.1791076660156</v>
+        <v>477.1569659174705</v>
       </c>
       <c r="E20">
-        <v>475.1791076660156</v>
+        <v>484.5739135742188</v>
       </c>
       <c r="F20">
-        <v>38926919</v>
+        <v>57111603</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>44894</v>
+        <v>44896</v>
       </c>
       <c r="B21">
-        <v>468.2566410824504</v>
+        <v>500.3967451671421</v>
       </c>
       <c r="C21">
-        <v>482.5960735971188</v>
+        <v>502.3745979148383</v>
       </c>
       <c r="D21">
-        <v>467.7621778922893</v>
+        <v>492.9797973632813</v>
       </c>
       <c r="E21">
-        <v>481.6071472167969</v>
+        <v>492.9797973632812</v>
       </c>
       <c r="F21">
-        <v>38182197</v>
+        <v>41746878</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>44895</v>
+        <v>44897</v>
       </c>
       <c r="B22">
-        <v>477.6514290945871</v>
+        <v>484.5739182215656</v>
       </c>
       <c r="C22">
-        <v>484.5739135742188</v>
+        <v>491.496402767588</v>
       </c>
       <c r="D22">
-        <v>477.1569659174705</v>
+        <v>484.5739182215656</v>
       </c>
       <c r="E22">
-        <v>484.5739135742188</v>
+        <v>487.0462341308594</v>
       </c>
       <c r="F22">
-        <v>57111603</v>
+        <v>28319679</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>44896</v>
+        <v>44900</v>
       </c>
       <c r="B23">
-        <v>500.3967451671421</v>
+        <v>486.0573380359111</v>
       </c>
       <c r="C23">
-        <v>502.3745979148383</v>
+        <v>491.9908965877228</v>
       </c>
       <c r="D23">
-        <v>492.9797973632813</v>
+        <v>483.5850219726562</v>
       </c>
       <c r="E23">
-        <v>492.9797973632812</v>
+        <v>483.5850219726562</v>
       </c>
       <c r="F23">
-        <v>41746878</v>
+        <v>28360444</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="B24">
-        <v>484.5739182215656</v>
+        <v>482.5960815940442</v>
       </c>
       <c r="C24">
-        <v>491.496402767588</v>
+        <v>483.5850079907533</v>
       </c>
       <c r="D24">
-        <v>484.5739182215656</v>
+        <v>472.7068176269531</v>
       </c>
       <c r="E24">
-        <v>487.0462341308594</v>
+        <v>472.7068176269531</v>
       </c>
       <c r="F24">
-        <v>28319679</v>
+        <v>40561068</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>44900</v>
+        <v>44902</v>
       </c>
       <c r="B25">
-        <v>486.0573380359111</v>
+        <v>471.7178734709087</v>
       </c>
       <c r="C25">
-        <v>491.9908965877228</v>
+        <v>480.12374752647</v>
       </c>
       <c r="D25">
-        <v>483.5850219726562</v>
+        <v>469.7400207519531</v>
       </c>
       <c r="E25">
-        <v>483.5850219726562</v>
+        <v>469.7400207519531</v>
       </c>
       <c r="F25">
-        <v>28360444</v>
+        <v>36563503</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>44901</v>
+        <v>44903</v>
       </c>
       <c r="B26">
-        <v>482.5960815940442</v>
+        <v>469.7400203312442</v>
       </c>
       <c r="C26">
-        <v>483.5850079907533</v>
+        <v>469.7400203312442</v>
       </c>
       <c r="D26">
-        <v>472.7068176269531</v>
+        <v>461.8286094625075</v>
       </c>
       <c r="E26">
-        <v>472.7068176269531</v>
+        <v>466.2787780761719</v>
       </c>
       <c r="F26">
-        <v>40561068</v>
+        <v>27238567</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="B27">
-        <v>471.7178734709087</v>
+        <v>472.7068179121641</v>
       </c>
       <c r="C27">
-        <v>480.12374752647</v>
+        <v>479.1348394946517</v>
       </c>
       <c r="D27">
-        <v>469.7400207519531</v>
+        <v>470.7289651175525</v>
       </c>
       <c r="E27">
-        <v>469.7400207519531</v>
+        <v>476.1680603027344</v>
       </c>
       <c r="F27">
-        <v>36563503</v>
+        <v>25915337</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>44903</v>
+        <v>44907</v>
       </c>
       <c r="B28">
-        <v>469.7400203312442</v>
+        <v>471.2234102911698</v>
       </c>
       <c r="C28">
-        <v>469.7400203312442</v>
+        <v>472.7067998303865</v>
       </c>
       <c r="D28">
-        <v>461.8286094625075</v>
+        <v>468.2566312127364</v>
       </c>
       <c r="E28">
-        <v>466.2787780761719</v>
+        <v>469.7400207519531</v>
       </c>
       <c r="F28">
-        <v>27238567</v>
+        <v>20973334</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>44904</v>
+        <v>44908</v>
       </c>
       <c r="B29">
-        <v>472.7068179121641</v>
+        <v>467.76216761406</v>
       </c>
       <c r="C29">
-        <v>479.1348394946517</v>
+        <v>470.7289466898363</v>
       </c>
       <c r="D29">
-        <v>470.7289651175525</v>
+        <v>465.7843148968759</v>
       </c>
       <c r="E29">
-        <v>476.1680603027344</v>
+        <v>466.2787780761719</v>
       </c>
       <c r="F29">
-        <v>25915337</v>
+        <v>33272826</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>44907</v>
+        <v>44909</v>
       </c>
       <c r="B30">
-        <v>471.2234102911698</v>
+        <v>466.7732337530892</v>
       </c>
       <c r="C30">
-        <v>472.7067998303865</v>
+        <v>475.1791076660156</v>
       </c>
       <c r="D30">
-        <v>468.2566312127364</v>
+        <v>466.7732337530892</v>
       </c>
       <c r="E30">
-        <v>469.7400207519531</v>
+        <v>475.1791076660156</v>
       </c>
       <c r="F30">
-        <v>20973334</v>
+        <v>30636639</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>44908</v>
+        <v>44910</v>
       </c>
       <c r="B31">
-        <v>467.76216761406</v>
+        <v>473.4385222912331</v>
       </c>
       <c r="C31">
-        <v>470.7289466898363</v>
+        <v>478.9089253849343</v>
       </c>
       <c r="D31">
-        <v>465.7843148968759</v>
+        <v>471.9465941747691</v>
       </c>
       <c r="E31">
-        <v>466.2787780761719</v>
+        <v>477.914306640625</v>
       </c>
       <c r="F31">
-        <v>33272826</v>
+        <v>24222008</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>44909</v>
+        <v>44911</v>
       </c>
       <c r="B32">
-        <v>466.7732337530892</v>
+        <v>463.9896695082354</v>
       </c>
       <c r="C32">
-        <v>475.1791076660156</v>
+        <v>468.4654541015624</v>
       </c>
       <c r="D32">
-        <v>466.7732337530892</v>
+        <v>462.9950507097183</v>
       </c>
       <c r="E32">
-        <v>475.1791076660156</v>
+        <v>468.4654541015625</v>
       </c>
       <c r="F32">
-        <v>30636639</v>
+        <v>47601400</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>44910</v>
+        <v>44914</v>
       </c>
       <c r="B33">
-        <v>473.4385222912331</v>
+        <v>463.9896545410157</v>
       </c>
       <c r="C33">
-        <v>478.9089253849343</v>
+        <v>466.9735108403148</v>
       </c>
       <c r="D33">
-        <v>471.9465941747691</v>
+        <v>462.4977263913661</v>
       </c>
       <c r="E33">
-        <v>477.914306640625</v>
+        <v>463.9896545410156</v>
       </c>
       <c r="F33">
-        <v>24222008</v>
+        <v>21075559</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="B34">
-        <v>463.9896695082354</v>
+        <v>462.4977266905738</v>
       </c>
       <c r="C34">
-        <v>468.4654541015624</v>
+        <v>464.4869642247268</v>
       </c>
       <c r="D34">
-        <v>462.9950507097183</v>
+        <v>452.5515390198087</v>
       </c>
       <c r="E34">
-        <v>468.4654541015625</v>
+        <v>455.0380859375</v>
       </c>
       <c r="F34">
-        <v>47601400</v>
+        <v>31139235</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>44914</v>
+        <v>44916</v>
       </c>
       <c r="B35">
-        <v>463.9896545410157</v>
+        <v>457.524648097086</v>
       </c>
       <c r="C35">
-        <v>466.9735108403148</v>
+        <v>460.5085044977192</v>
       </c>
       <c r="D35">
-        <v>462.4977263913661</v>
+        <v>454.5407916964529</v>
       </c>
       <c r="E35">
-        <v>463.9896545410156</v>
+        <v>456.530029296875</v>
       </c>
       <c r="F35">
-        <v>21075559</v>
+        <v>36182644</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="B36">
-        <v>462.4977266905738</v>
+        <v>463.9896697019919</v>
       </c>
       <c r="C36">
-        <v>464.4869642247268</v>
+        <v>466.4762166993231</v>
       </c>
       <c r="D36">
-        <v>452.5515390198087</v>
+        <v>461.5031227046608</v>
       </c>
       <c r="E36">
-        <v>455.0380859375</v>
+        <v>465.4815979003906</v>
       </c>
       <c r="F36">
-        <v>31139235</v>
+        <v>14047382</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>44916</v>
+        <v>44918</v>
       </c>
       <c r="B37">
-        <v>457.524648097086</v>
+        <v>455.0380911355491</v>
       </c>
       <c r="C37">
-        <v>460.5085044977192</v>
+        <v>456.0327099139874</v>
       </c>
       <c r="D37">
-        <v>454.5407916964529</v>
+        <v>452.5515441894532</v>
       </c>
       <c r="E37">
-        <v>456.530029296875</v>
+        <v>452.5515441894531</v>
       </c>
       <c r="F37">
-        <v>36182644</v>
+        <v>24927413</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>44917</v>
+        <v>44921</v>
       </c>
       <c r="B38">
-        <v>463.9896697019919</v>
+        <v>451.5569101690854</v>
       </c>
       <c r="C38">
-        <v>466.4762166993231</v>
+        <v>454.5407664036829</v>
       </c>
       <c r="D38">
-        <v>461.5031227046608</v>
+        <v>451.0596007966525</v>
       </c>
       <c r="E38">
-        <v>465.4815979003906</v>
+        <v>454.04345703125</v>
       </c>
       <c r="F38">
-        <v>14047382</v>
+        <v>8793306</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="B39">
-        <v>455.0380911355491</v>
+        <v>455.5353902403583</v>
       </c>
       <c r="C39">
-        <v>456.0327099139874</v>
+        <v>460.0111746422832</v>
       </c>
       <c r="D39">
-        <v>452.5515441894532</v>
+        <v>454.5407714843749</v>
       </c>
       <c r="E39">
-        <v>452.5515441894531</v>
+        <v>454.540771484375</v>
       </c>
       <c r="F39">
-        <v>24927413</v>
+        <v>10264001</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>44921</v>
+        <v>44923</v>
       </c>
       <c r="B40">
-        <v>451.5569101690854</v>
+        <v>448.5730590820312</v>
       </c>
       <c r="C40">
-        <v>454.5407664036829</v>
+        <v>449.5676778383107</v>
       </c>
       <c r="D40">
-        <v>451.0596007966525</v>
+        <v>443.599965300634</v>
       </c>
       <c r="E40">
-        <v>454.04345703125</v>
+        <v>448.5730590820312</v>
       </c>
       <c r="F40">
-        <v>8793306</v>
+        <v>32578949</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>44922</v>
+        <v>44924</v>
       </c>
       <c r="B41">
-        <v>455.5353902403583</v>
+        <v>441.6107380272562</v>
       </c>
       <c r="C41">
-        <v>460.0111746422832</v>
+        <v>447.0811413136298</v>
       </c>
       <c r="D41">
-        <v>454.5407714843749</v>
+        <v>440.1188098582451</v>
       </c>
       <c r="E41">
-        <v>454.540771484375</v>
+        <v>443.5999755859375</v>
       </c>
       <c r="F41">
-        <v>10264001</v>
+        <v>23020759</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>44923</v>
+        <v>44925</v>
       </c>
       <c r="B42">
-        <v>448.5730590820312</v>
+        <v>452.5515393243319</v>
       </c>
       <c r="C42">
-        <v>449.5676778383107</v>
+        <v>454.0434674759506</v>
       </c>
       <c r="D42">
-        <v>443.599965300634</v>
+        <v>446.0865173339843</v>
       </c>
       <c r="E42">
-        <v>448.5730590820312</v>
+        <v>446.0865173339844</v>
       </c>
       <c r="F42">
-        <v>32578949</v>
+        <v>21683478</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>44924</v>
+        <v>44929</v>
       </c>
       <c r="B43">
-        <v>441.6107380272562</v>
+        <v>443.5999852868895</v>
       </c>
       <c r="C43">
-        <v>447.0811413136298</v>
+        <v>451.0596262950771</v>
       </c>
       <c r="D43">
-        <v>440.1188098582451</v>
+        <v>440.6161288836145</v>
       </c>
       <c r="E43">
-        <v>443.5999755859375</v>
+        <v>450.5623168945312</v>
       </c>
       <c r="F43">
-        <v>23020759</v>
+        <v>14885824</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>44925</v>
+        <v>44930</v>
       </c>
       <c r="B44">
-        <v>452.5515393243319</v>
+        <v>447.0811462402344</v>
       </c>
       <c r="C44">
-        <v>454.0434674759506</v>
+        <v>452.5515495868891</v>
       </c>
       <c r="D44">
-        <v>446.0865173339843</v>
+        <v>446.0865274499335</v>
       </c>
       <c r="E44">
-        <v>446.0865173339844</v>
+        <v>447.0811462402344</v>
       </c>
       <c r="F44">
-        <v>21683478</v>
+        <v>19188422</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>44929</v>
+        <v>44931</v>
       </c>
       <c r="B45">
-        <v>443.5999852868895</v>
+        <v>456.5300242383451</v>
       </c>
       <c r="C45">
-        <v>451.0596262950771</v>
+        <v>457.0273336329403</v>
       </c>
       <c r="D45">
-        <v>440.6161288836145</v>
+        <v>452.551549081584</v>
       </c>
       <c r="E45">
-        <v>450.5623168945312</v>
+        <v>456.03271484375</v>
       </c>
       <c r="F45">
-        <v>14885824</v>
+        <v>23549581</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="B46">
-        <v>447.0811462402344</v>
+        <v>452.551549081584</v>
       </c>
       <c r="C46">
-        <v>452.5515495868891</v>
+        <v>457.0273336329403</v>
       </c>
       <c r="D46">
-        <v>446.0865274499335</v>
+        <v>452.551549081584</v>
       </c>
       <c r="E46">
-        <v>447.0811462402344</v>
+        <v>456.03271484375</v>
       </c>
       <c r="F46">
-        <v>19188422</v>
+        <v>20886011</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="B47">
-        <v>456.5300242383451</v>
+        <v>465.4815772804054</v>
       </c>
       <c r="C47">
-        <v>457.0273336329403</v>
+        <v>478.4116210937501</v>
       </c>
       <c r="D47">
-        <v>452.551549081584</v>
+        <v>464.9842679029691</v>
       </c>
       <c r="E47">
-        <v>456.03271484375</v>
+        <v>478.41162109375</v>
       </c>
       <c r="F47">
-        <v>23549581</v>
+        <v>46666263</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="B48">
-        <v>452.551549081584</v>
+        <v>483.3847351074219</v>
       </c>
       <c r="C48">
-        <v>457.0273336329403</v>
+        <v>484.3793539039392</v>
       </c>
       <c r="D48">
-        <v>452.551549081584</v>
+        <v>480.4008787178699</v>
       </c>
       <c r="E48">
-        <v>456.03271484375</v>
+        <v>483.3847351074219</v>
       </c>
       <c r="F48">
-        <v>20886011</v>
+        <v>32646014</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>44935</v>
+        <v>44937</v>
       </c>
       <c r="B49">
-        <v>465.4815772804054</v>
+        <v>484.3793386610915</v>
       </c>
       <c r="C49">
-        <v>478.4116210937501</v>
+        <v>485.3739574263093</v>
       </c>
       <c r="D49">
-        <v>464.9842679029691</v>
+        <v>479.4062448350023</v>
       </c>
       <c r="E49">
-        <v>478.41162109375</v>
+        <v>481.8927917480469</v>
       </c>
       <c r="F49">
-        <v>46666263</v>
+        <v>21051115</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>44936</v>
+        <v>44938</v>
       </c>
       <c r="B50">
-        <v>483.3847351074219</v>
+        <v>484.8766377871476</v>
       </c>
       <c r="C50">
-        <v>484.3793539039392</v>
+        <v>485.3739471592369</v>
       </c>
       <c r="D50">
-        <v>480.4008787178699</v>
+        <v>481.3954721825219</v>
       </c>
       <c r="E50">
-        <v>483.3847351074219</v>
+        <v>483.8820190429688</v>
       </c>
       <c r="F50">
-        <v>32646014</v>
+        <v>20963689</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>44937</v>
+        <v>44939</v>
       </c>
       <c r="B51">
-        <v>484.3793386610915</v>
+        <v>504.2717186279297</v>
       </c>
       <c r="C51">
-        <v>485.3739574263093</v>
+        <v>506.2609561767578</v>
       </c>
       <c r="D51">
-        <v>479.4062448350023</v>
+        <v>496.3147684326171</v>
       </c>
       <c r="E51">
-        <v>481.8927917480469</v>
+        <v>497.3093872070312</v>
       </c>
       <c r="F51">
-        <v>21051115</v>
+        <v>77606949</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>44938</v>
+        <v>44942</v>
       </c>
       <c r="B52">
-        <v>484.8766377871476</v>
+        <v>503.2770894569925</v>
       </c>
       <c r="C52">
-        <v>485.3739471592369</v>
+        <v>505.2663269647277</v>
       </c>
       <c r="D52">
-        <v>481.3954721825219</v>
+        <v>500.2932331953898</v>
       </c>
       <c r="E52">
-        <v>483.8820190429688</v>
+        <v>502.282470703125</v>
       </c>
       <c r="F52">
-        <v>20963689</v>
+        <v>34373918</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>44939</v>
+        <v>44943</v>
       </c>
       <c r="B53">
-        <v>504.2717186279297</v>
+        <v>501.2878621823745</v>
       </c>
       <c r="C53">
-        <v>506.2609561767578</v>
+        <v>501.2878621823745</v>
       </c>
       <c r="D53">
-        <v>496.3147684326171</v>
+        <v>496.8120776986033</v>
       </c>
       <c r="E53">
-        <v>497.3093872070312</v>
+        <v>500.2932434082031</v>
       </c>
       <c r="F53">
-        <v>77606949</v>
+        <v>27770329</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>44942</v>
+        <v>44956</v>
       </c>
       <c r="B54">
-        <v>503.2770894569925</v>
+        <v>539.0833841397617</v>
       </c>
       <c r="C54">
-        <v>505.2663269647277</v>
+        <v>540.0780029296875</v>
       </c>
       <c r="D54">
-        <v>500.2932331953898</v>
+        <v>531.1264338203557</v>
       </c>
       <c r="E54">
-        <v>502.282470703125</v>
+        <v>540.0780029296875</v>
       </c>
       <c r="F54">
-        <v>34373918</v>
+        <v>124428936</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>44943</v>
+        <v>44957</v>
       </c>
       <c r="B55">
-        <v>501.2878621823745</v>
+        <v>534.1102600097656</v>
       </c>
       <c r="C55">
-        <v>501.2878621823745</v>
+        <v>535.1048787434896</v>
       </c>
       <c r="D55">
-        <v>496.8120776986033</v>
+        <v>518.1963602701823</v>
       </c>
       <c r="E55">
-        <v>500.2932434082031</v>
+        <v>519.1909790039062</v>
       </c>
       <c r="F55">
-        <v>27770329</v>
+        <v>72530854</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>44956</v>
+        <v>44958</v>
       </c>
       <c r="B56">
-        <v>539.0833841397617</v>
+        <v>529.1371867629717</v>
       </c>
       <c r="C56">
-        <v>540.0780029296875</v>
+        <v>530.1318055350825</v>
       </c>
       <c r="D56">
-        <v>531.1264338203557</v>
+        <v>519.1909990418632</v>
       </c>
       <c r="E56">
-        <v>540.0780029296875</v>
+        <v>527.14794921875</v>
       </c>
       <c r="F56">
-        <v>124428936</v>
+        <v>33710990</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="B57">
+        <v>535.1048787434896</v>
+      </c>
+      <c r="C57">
+        <v>539.0833536783854</v>
+      </c>
+      <c r="D57">
         <v>534.1102600097656</v>
       </c>
-      <c r="C57">
-        <v>535.1048787434896</v>
-      </c>
-      <c r="D57">
-        <v>518.1963602701823</v>
-      </c>
       <c r="E57">
-        <v>519.1909790039062</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="F57">
-        <v>72530854</v>
+        <v>43077053</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>44958</v>
+        <v>44960</v>
       </c>
       <c r="B58">
-        <v>529.1371867629717</v>
+        <v>537.0941364809156</v>
       </c>
       <c r="C58">
-        <v>530.1318055350825</v>
+        <v>539.0833740234375</v>
       </c>
       <c r="D58">
-        <v>519.1909990418632</v>
+        <v>533.1156613958718</v>
       </c>
       <c r="E58">
-        <v>527.14794921875</v>
+        <v>539.0833740234375</v>
       </c>
       <c r="F58">
-        <v>33710990</v>
+        <v>31635865</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>44959</v>
+        <v>44963</v>
       </c>
       <c r="B59">
-        <v>535.1048787434896</v>
+        <v>529.1372074953957</v>
       </c>
       <c r="C59">
-        <v>539.0833536783854</v>
+        <v>530.1318263064773</v>
       </c>
       <c r="D59">
-        <v>534.1102600097656</v>
+        <v>523.1694946289062</v>
       </c>
       <c r="E59">
-        <v>537.0941162109375</v>
+        <v>523.1694946289062</v>
       </c>
       <c r="F59">
-        <v>43077053</v>
+        <v>30870136</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="B60">
-        <v>537.0941364809156</v>
+        <v>521.1802266633305</v>
       </c>
       <c r="C60">
-        <v>539.0833740234375</v>
+        <v>525.1587016760277</v>
       </c>
       <c r="D60">
-        <v>533.1156613958718</v>
+        <v>519.1909891569819</v>
       </c>
       <c r="E60">
-        <v>539.0833740234375</v>
+        <v>520.1856079101562</v>
       </c>
       <c r="F60">
-        <v>31635865</v>
+        <v>23481767</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>44963</v>
+        <v>44965</v>
       </c>
       <c r="B61">
-        <v>529.1372074953957</v>
+        <v>535.1048787434896</v>
       </c>
       <c r="C61">
-        <v>530.1318263064773</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="D61">
-        <v>523.1694946289062</v>
+        <v>531.1264038085938</v>
       </c>
       <c r="E61">
-        <v>523.1694946289062</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="F61">
-        <v>30870136</v>
+        <v>35096191</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="B62">
-        <v>521.1802266633305</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="C62">
-        <v>525.1587016760277</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="D62">
-        <v>519.1909891569819</v>
+        <v>533.1156412760416</v>
       </c>
       <c r="E62">
-        <v>520.1856079101562</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="F62">
-        <v>23481767</v>
+        <v>18861972</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>44965</v>
+        <v>44967</v>
       </c>
       <c r="B63">
-        <v>535.1048787434896</v>
+        <v>541.0726419151376</v>
       </c>
       <c r="C63">
-        <v>537.0941162109375</v>
+        <v>543.0618795692374</v>
       </c>
       <c r="D63">
-        <v>531.1264038085938</v>
+        <v>538.0887854339879</v>
       </c>
       <c r="E63">
-        <v>537.0941162109375</v>
+        <v>542.0672607421875</v>
       </c>
       <c r="F63">
-        <v>35096191</v>
+        <v>28495684</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>44966</v>
+        <v>44970</v>
       </c>
       <c r="B64">
-        <v>537.0941162109375</v>
+        <v>541.072601374769</v>
       </c>
       <c r="C64">
-        <v>537.0941162109375</v>
+        <v>541.072601374769</v>
       </c>
       <c r="D64">
-        <v>533.1156412760416</v>
+        <v>535.104888859606</v>
       </c>
       <c r="E64">
-        <v>537.0941162109375</v>
+        <v>538.0887451171875</v>
       </c>
       <c r="F64">
-        <v>18861972</v>
+        <v>22768977</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>44967</v>
+        <v>44971</v>
       </c>
       <c r="B65">
         <v>541.0726419151376</v>
@@ -1692,1033 +1692,1033 @@
         <v>543.0618795692374</v>
       </c>
       <c r="D65">
-        <v>538.0887854339879</v>
+        <v>540.0780230880878</v>
       </c>
       <c r="E65">
         <v>542.0672607421875</v>
       </c>
       <c r="F65">
-        <v>28495684</v>
+        <v>21883297</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>44970</v>
+        <v>44972</v>
       </c>
       <c r="B66">
-        <v>541.072601374769</v>
+        <v>523.1694845145089</v>
       </c>
       <c r="C66">
-        <v>541.072601374769</v>
+        <v>529.137197265625</v>
       </c>
       <c r="D66">
-        <v>535.104888859606</v>
+        <v>519.1910093470982</v>
       </c>
       <c r="E66">
-        <v>538.0887451171875</v>
+        <v>522.1748657226562</v>
       </c>
       <c r="F66">
-        <v>22768977</v>
+        <v>61796793</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="B67">
-        <v>541.0726419151376</v>
+        <v>525.15869140625</v>
       </c>
       <c r="C67">
-        <v>543.0618795692374</v>
+        <v>528.1425476074219</v>
       </c>
       <c r="D67">
-        <v>540.0780230880878</v>
+        <v>521.1802164713541</v>
       </c>
       <c r="E67">
-        <v>542.0672607421875</v>
+        <v>525.15869140625</v>
       </c>
       <c r="F67">
-        <v>21883297</v>
+        <v>29975138</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>44972</v>
+        <v>44974</v>
       </c>
       <c r="B68">
-        <v>523.1694845145089</v>
+        <v>521.1802370520633</v>
       </c>
       <c r="C68">
-        <v>529.137197265625</v>
+        <v>521.1802370520633</v>
       </c>
       <c r="D68">
-        <v>519.1910093470982</v>
+        <v>513.2232868680624</v>
       </c>
       <c r="E68">
-        <v>522.1748657226562</v>
+        <v>515.2125244140625</v>
       </c>
       <c r="F68">
-        <v>61796793</v>
+        <v>28121975</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>44973</v>
+        <v>44977</v>
       </c>
       <c r="B69">
-        <v>525.15869140625</v>
+        <v>511.2340392476124</v>
       </c>
       <c r="C69">
-        <v>528.1425476074219</v>
+        <v>516.2071330146125</v>
       </c>
       <c r="D69">
-        <v>521.1802164713541</v>
+        <v>508.2501829874123</v>
       </c>
       <c r="E69">
-        <v>525.15869140625</v>
+        <v>514.2178955078125</v>
       </c>
       <c r="F69">
-        <v>29975138</v>
+        <v>20065156</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>44974</v>
+        <v>44978</v>
       </c>
       <c r="B70">
-        <v>521.1802370520633</v>
+        <v>512.2286478678385</v>
       </c>
       <c r="C70">
-        <v>521.1802370520633</v>
+        <v>514.2178853352865</v>
       </c>
       <c r="D70">
-        <v>513.2232868680624</v>
+        <v>510.2394104003906</v>
       </c>
       <c r="E70">
-        <v>515.2125244140625</v>
+        <v>513.2232666015625</v>
       </c>
       <c r="F70">
-        <v>28121975</v>
+        <v>13504100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>44977</v>
+        <v>44979</v>
       </c>
       <c r="B71">
-        <v>511.2340392476124</v>
+        <v>503.2771097217086</v>
       </c>
       <c r="C71">
-        <v>516.2071330146125</v>
+        <v>506.2609661034579</v>
       </c>
       <c r="D71">
-        <v>508.2501829874123</v>
+        <v>502.2824909277921</v>
       </c>
       <c r="E71">
-        <v>514.2178955078125</v>
+        <v>504.271728515625</v>
       </c>
       <c r="F71">
-        <v>20065156</v>
+        <v>24575245</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="B72">
-        <v>512.2286478678385</v>
+        <v>509.2448117760618</v>
       </c>
       <c r="C72">
-        <v>514.2178853352865</v>
+        <v>518.1963807330629</v>
       </c>
       <c r="D72">
-        <v>510.2394104003906</v>
+        <v>507.2555742300616</v>
       </c>
       <c r="E72">
-        <v>513.2232666015625</v>
+        <v>515.2125244140625</v>
       </c>
       <c r="F72">
-        <v>13504100</v>
+        <v>25376835</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>44979</v>
+        <v>44981</v>
       </c>
       <c r="B73">
-        <v>503.2771097217086</v>
+        <v>521.1802269026725</v>
       </c>
       <c r="C73">
-        <v>506.2609661034579</v>
+        <v>522.1748456563035</v>
       </c>
       <c r="D73">
-        <v>502.2824909277921</v>
+        <v>508.2501831054688</v>
       </c>
       <c r="E73">
-        <v>504.271728515625</v>
+        <v>508.2501831054688</v>
       </c>
       <c r="F73">
-        <v>24575245</v>
+        <v>41692491</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>44980</v>
+        <v>44986</v>
       </c>
       <c r="B74">
-        <v>509.2448117760618</v>
+        <v>501.287841796875</v>
       </c>
       <c r="C74">
-        <v>518.1963807330629</v>
+        <v>519.1909790039062</v>
       </c>
       <c r="D74">
-        <v>507.2555742300616</v>
+        <v>501.287841796875</v>
       </c>
       <c r="E74">
-        <v>515.2125244140625</v>
+        <v>519.1909790039062</v>
       </c>
       <c r="F74">
-        <v>25376835</v>
+        <v>39560848</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>44981</v>
+        <v>44987</v>
       </c>
       <c r="B75">
-        <v>521.1802269026725</v>
+        <v>516.2071533203125</v>
       </c>
       <c r="C75">
-        <v>522.1748456563035</v>
+        <v>517.2017721128373</v>
       </c>
       <c r="D75">
-        <v>508.2501831054688</v>
+        <v>512.2286781502138</v>
       </c>
       <c r="E75">
-        <v>508.2501831054688</v>
+        <v>516.2071533203125</v>
       </c>
       <c r="F75">
-        <v>41692491</v>
+        <v>16558784</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>44986</v>
+        <v>44988</v>
       </c>
       <c r="B76">
-        <v>501.287841796875</v>
+        <v>521.1802164713541</v>
       </c>
       <c r="C76">
-        <v>519.1909790039062</v>
+        <v>522.1748352050781</v>
       </c>
       <c r="D76">
-        <v>501.287841796875</v>
+        <v>513.2232666015625</v>
       </c>
       <c r="E76">
-        <v>519.1909790039062</v>
+        <v>513.2232666015625</v>
       </c>
       <c r="F76">
-        <v>39560848</v>
+        <v>23253895</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>44987</v>
+        <v>44991</v>
       </c>
       <c r="B77">
-        <v>516.2071533203125</v>
+        <v>517.2017923014636</v>
       </c>
       <c r="C77">
-        <v>517.2017721128373</v>
+        <v>521.1802676268594</v>
       </c>
       <c r="D77">
-        <v>512.2286781502138</v>
+        <v>514.2179358074167</v>
       </c>
       <c r="E77">
-        <v>516.2071533203125</v>
+        <v>518.1964111328125</v>
       </c>
       <c r="F77">
-        <v>16558784</v>
+        <v>21922085</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B78">
-        <v>521.1802164713541</v>
+        <v>518.1963804987552</v>
       </c>
       <c r="C78">
-        <v>522.1748352050781</v>
+        <v>523.1694743615071</v>
       </c>
       <c r="D78">
-        <v>513.2232666015625</v>
+        <v>516.2071429536543</v>
       </c>
       <c r="E78">
-        <v>513.2232666015625</v>
+        <v>521.1802368164062</v>
       </c>
       <c r="F78">
-        <v>23253895</v>
+        <v>24861078</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B79">
-        <v>517.2017923014636</v>
+        <v>518.1964111328125</v>
       </c>
       <c r="C79">
-        <v>521.1802676268594</v>
+        <v>520.1856487955105</v>
       </c>
       <c r="D79">
-        <v>514.2179358074167</v>
+        <v>515.2125546387656</v>
       </c>
       <c r="E79">
         <v>518.1964111328125</v>
       </c>
       <c r="F79">
-        <v>21922085</v>
+        <v>24512408</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>44992</v>
+        <v>44994</v>
       </c>
       <c r="B80">
-        <v>518.1963804987552</v>
+        <v>522.1748352050781</v>
       </c>
       <c r="C80">
-        <v>523.1694743615071</v>
+        <v>523.1694539388021</v>
       </c>
       <c r="D80">
-        <v>516.2071429536543</v>
+        <v>519.1909790039062</v>
       </c>
       <c r="E80">
-        <v>521.1802368164062</v>
+        <v>519.1909790039062</v>
       </c>
       <c r="F80">
-        <v>24861078</v>
+        <v>21557577</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="B81">
-        <v>518.1964111328125</v>
+        <v>512.2286785043935</v>
       </c>
       <c r="C81">
-        <v>520.1856487955105</v>
+        <v>513.223297297606</v>
       </c>
       <c r="D81">
-        <v>515.2125546387656</v>
+        <v>508.2502033315439</v>
       </c>
       <c r="E81">
-        <v>518.1964111328125</v>
+        <v>510.2394409179688</v>
       </c>
       <c r="F81">
-        <v>24512408</v>
+        <v>24045605</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>44994</v>
+        <v>44998</v>
       </c>
       <c r="B82">
-        <v>522.1748352050781</v>
+        <v>510.2394104003906</v>
       </c>
       <c r="C82">
-        <v>523.1694539388021</v>
+        <v>515.2125040690104</v>
       </c>
       <c r="D82">
-        <v>519.1909790039062</v>
+        <v>506.2609354654948</v>
       </c>
       <c r="E82">
-        <v>519.1909790039062</v>
+        <v>513.2232666015625</v>
       </c>
       <c r="F82">
-        <v>21557577</v>
+        <v>21466947</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>44995</v>
+        <v>44999</v>
       </c>
       <c r="B83">
-        <v>512.2286785043935</v>
+        <v>508.2502035103592</v>
       </c>
       <c r="C83">
-        <v>513.223297297606</v>
+        <v>511.2340598910462</v>
       </c>
       <c r="D83">
-        <v>508.2502033315439</v>
+        <v>507.2555847167968</v>
       </c>
       <c r="E83">
-        <v>510.2394409179688</v>
+        <v>507.2555847167969</v>
       </c>
       <c r="F83">
-        <v>24045605</v>
+        <v>20474770</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>44998</v>
+        <v>45000</v>
       </c>
       <c r="B84">
-        <v>510.2394104003906</v>
+        <v>512.228658119993</v>
       </c>
       <c r="C84">
-        <v>515.2125040690104</v>
+        <v>513.2232768736241</v>
       </c>
       <c r="D84">
-        <v>506.2609354654948</v>
+        <v>507.2555643518377</v>
       </c>
       <c r="E84">
-        <v>513.2232666015625</v>
+        <v>508.2501831054688</v>
       </c>
       <c r="F84">
-        <v>21466947</v>
+        <v>23208597</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>44999</v>
+        <v>45001</v>
       </c>
       <c r="B85">
-        <v>508.2502035103592</v>
+        <v>505</v>
       </c>
       <c r="C85">
-        <v>511.2340598910462</v>
+        <v>510</v>
       </c>
       <c r="D85">
-        <v>507.2555847167968</v>
+        <v>504</v>
       </c>
       <c r="E85">
-        <v>507.2555847167969</v>
+        <v>505</v>
       </c>
       <c r="F85">
-        <v>20474770</v>
+        <v>21965994</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45000</v>
+        <v>45002</v>
       </c>
       <c r="B86">
-        <v>512.228658119993</v>
+        <v>516</v>
       </c>
       <c r="C86">
-        <v>513.2232768736241</v>
+        <v>518</v>
       </c>
       <c r="D86">
-        <v>507.2555643518377</v>
+        <v>513</v>
       </c>
       <c r="E86">
-        <v>508.2501831054688</v>
+        <v>518</v>
       </c>
       <c r="F86">
-        <v>23208597</v>
+        <v>33118483</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45001</v>
+        <v>45005</v>
       </c>
       <c r="B87">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="C87">
+        <v>518</v>
+      </c>
+      <c r="D87">
         <v>510</v>
       </c>
-      <c r="D87">
-        <v>504</v>
-      </c>
       <c r="E87">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="F87">
-        <v>21965994</v>
+        <v>11837312</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="B88">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C88">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D88">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E88">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F88">
-        <v>33118483</v>
+        <v>18284799</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="B89">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="C89">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="D89">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="E89">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="F89">
-        <v>11837312</v>
+        <v>42385987</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45006</v>
+        <v>45008</v>
       </c>
       <c r="B90">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="C90">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="D90">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="E90">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="F90">
-        <v>18284799</v>
+        <v>26728246</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45007</v>
+        <v>45009</v>
       </c>
       <c r="B91">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="C91">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D91">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="E91">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F91">
-        <v>42385987</v>
+        <v>21926240</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45008</v>
+        <v>45012</v>
       </c>
       <c r="B92">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C92">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D92">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E92">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F92">
-        <v>26728246</v>
+        <v>16111177</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45009</v>
+        <v>45013</v>
       </c>
       <c r="B93">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C93">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="D93">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="E93">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="F93">
-        <v>21926240</v>
+        <v>17234120</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45012</v>
+        <v>45014</v>
       </c>
       <c r="B94">
         <v>533</v>
       </c>
       <c r="C94">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D94">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E94">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F94">
-        <v>16111177</v>
+        <v>17280749</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45013</v>
+        <v>45015</v>
       </c>
       <c r="B95">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="C95">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="D95">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="E95">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="F95">
-        <v>17234120</v>
+        <v>19201564</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45014</v>
+        <v>45016</v>
       </c>
       <c r="B96">
+        <v>538</v>
+      </c>
+      <c r="C96">
+        <v>538</v>
+      </c>
+      <c r="D96">
+        <v>532</v>
+      </c>
+      <c r="E96">
         <v>533</v>
       </c>
-      <c r="C96">
-        <v>533</v>
-      </c>
-      <c r="D96">
-        <v>525</v>
-      </c>
-      <c r="E96">
-        <v>530</v>
-      </c>
       <c r="F96">
-        <v>17280749</v>
+        <v>23558838</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45015</v>
+        <v>45022</v>
       </c>
       <c r="B97">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C97">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D97">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E97">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F97">
-        <v>19201564</v>
+        <v>25423363</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45016</v>
+        <v>45023</v>
       </c>
       <c r="B98">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C98">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D98">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E98">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F98">
-        <v>23558838</v>
+        <v>8557482</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="B99">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C99">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D99">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E99">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F99">
-        <v>25423363</v>
+        <v>7435151</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45023</v>
+        <v>45027</v>
       </c>
       <c r="B100">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="C100">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D100">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E100">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F100">
-        <v>8557482</v>
+        <v>22675697</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45026</v>
+        <v>45028</v>
       </c>
       <c r="B101">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C101">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D101">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="E101">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F101">
-        <v>7435151</v>
+        <v>23816473</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="B102">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C102">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D102">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="E102">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="F102">
-        <v>22675697</v>
+        <v>25536889</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45028</v>
+        <v>45030</v>
       </c>
       <c r="B103">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C103">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D103">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E103">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F103">
-        <v>23816473</v>
+        <v>18072504</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45029</v>
+        <v>45033</v>
       </c>
       <c r="B104">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C104">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D104">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E104">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="F104">
-        <v>25536889</v>
+        <v>14634287</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="B105">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C105">
         <v>520</v>
       </c>
       <c r="D105">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E105">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F105">
-        <v>18072504</v>
+        <v>15168888</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45033</v>
+        <v>45035</v>
       </c>
       <c r="B106">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C106">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D106">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E106">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F106">
-        <v>14634287</v>
+        <v>21123233</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45034</v>
+        <v>45036</v>
       </c>
       <c r="B107">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C107">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D107">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E107">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F107">
-        <v>15168888</v>
+        <v>17221961</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45035</v>
+        <v>45037</v>
       </c>
       <c r="B108">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C108">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D108">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E108">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F108">
-        <v>21123233</v>
+        <v>25016683</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45036</v>
+        <v>45040</v>
       </c>
       <c r="B109">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C109">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D109">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E109">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F109">
-        <v>17221961</v>
+        <v>16886512</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45037</v>
+        <v>45041</v>
       </c>
       <c r="B110">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="C110">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D110">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="E110">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="F110">
-        <v>25016683</v>
+        <v>36898412</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45040</v>
+        <v>45042</v>
       </c>
       <c r="B111">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C111">
-        <v>510</v>
+        <v>498.5</v>
       </c>
       <c r="D111">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="E111">
-        <v>507</v>
+        <v>491.5</v>
       </c>
       <c r="F111">
-        <v>16886512</v>
+        <v>31269245</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45041</v>
+        <v>45043</v>
       </c>
       <c r="B112">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="C112">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D112">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="E112">
-        <v>498</v>
+        <v>493.5</v>
       </c>
       <c r="F112">
-        <v>36898412</v>
+        <v>29537148</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45042</v>
+        <v>45044</v>
       </c>
       <c r="B113">
+        <v>498.5</v>
+      </c>
+      <c r="C113">
+        <v>502</v>
+      </c>
+      <c r="D113">
         <v>498</v>
       </c>
-      <c r="C113">
-        <v>498.5</v>
-      </c>
-      <c r="D113">
-        <v>491</v>
-      </c>
       <c r="E113">
-        <v>491.5</v>
+        <v>502</v>
       </c>
       <c r="F113">
-        <v>31269245</v>
+        <v>24824100</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45043</v>
+        <v>45048</v>
       </c>
       <c r="B114">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="C114">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D114">
-        <v>489</v>
+        <v>496.5</v>
       </c>
       <c r="E114">
-        <v>493.5</v>
+        <v>501</v>
       </c>
       <c r="F114">
-        <v>29537148</v>
+        <v>15325791</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="B115">
-        <v>498.5</v>
+        <v>496</v>
       </c>
       <c r="C115">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D115">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E115">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F115">
-        <v>24824100</v>
+        <v>11369311</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45048</v>
+        <v>45050</v>
       </c>
       <c r="B116">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C116">
-        <v>502</v>
+        <v>499.5</v>
       </c>
       <c r="D116">
-        <v>496.5</v>
+        <v>496</v>
       </c>
       <c r="E116">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F116">
-        <v>15589362</v>
+        <v>13340749</v>
       </c>
     </row>
   </sheetData>
